--- a/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.051719650720827</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.7773857482015956</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1647300528954361</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007725564060969961</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,30 +454,36 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.087969505589321</v>
+      </c>
+      <c r="N2">
+        <v>0.6660647908122783</v>
+      </c>
+      <c r="O2">
+        <v>1.185147598095512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.629157652130914</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.669750383635062</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.142803426503896</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007808582237628008</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -489,30 +501,36 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.9364917101942822</v>
+      </c>
+      <c r="N3">
+        <v>0.713181571194724</v>
+      </c>
+      <c r="O3">
+        <v>1.061076653371927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.373815554015891</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.6046625943650668</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1297136857163856</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007860756862588195</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -530,30 +548,36 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.8452173085911525</v>
+      </c>
+      <c r="N4">
+        <v>0.7438947838584369</v>
+      </c>
+      <c r="O4">
+        <v>0.9884259200590009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.270639267177387</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.578347885790464</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.1244611677421084</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007882339151472766</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -571,30 +595,36 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.8083943016037622</v>
+      </c>
+      <c r="N5">
+        <v>0.7568329804603806</v>
+      </c>
+      <c r="O5">
+        <v>0.9596117931254184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.253555625768627</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.5739898082366039</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.1235935874495802</v>
       </c>
       <c r="F6">
         <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007885942760124962</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -612,30 +642,36 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.8023005834839836</v>
+      </c>
+      <c r="N6">
+        <v>0.7590061467058931</v>
+      </c>
+      <c r="O6">
+        <v>0.9548724032986797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.372420725358438</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.6043069117475284</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.1296425331092728</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007861046607203973</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -653,30 +689,36 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.8447192743887726</v>
+      </c>
+      <c r="N7">
+        <v>0.7440675957296676</v>
+      </c>
+      <c r="O7">
+        <v>0.9880342377495026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2.905067816687108</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.7400384326177516</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.157084550771927</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007753951199222352</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -694,30 +736,36 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1.035339778559049</v>
+      </c>
+      <c r="N8">
+        <v>0.6819240362278052</v>
+      </c>
+      <c r="O8">
+        <v>1.141574897948587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3.990148337422511</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.016313215143072</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2144801233184026</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.000755252811680273</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -735,30 +783,36 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.426141219991152</v>
+      </c>
+      <c r="N9">
+        <v>0.5755262043925384</v>
+      </c>
+      <c r="O9">
+        <v>1.475515246267406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4.824679053098009</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.228909862582498</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.2598204808275568</v>
       </c>
       <c r="F10">
         <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007408296530248806</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -776,30 +830,36 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.728780043828053</v>
+      </c>
+      <c r="N10">
+        <v>0.5088675284774169</v>
+      </c>
+      <c r="O10">
+        <v>1.748570469277908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5.215750807664051</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.32863162326737</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2813980516307311</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007343108989798071</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -817,30 +877,36 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.871190922125407</v>
+      </c>
+      <c r="N11">
+        <v>0.4815952145635052</v>
+      </c>
+      <c r="O11">
+        <v>1.880836267103746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>5.365810104751233</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.366917270185638</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.2897317895619267</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.000731844727454356</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -858,30 +924,36 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.925933995505375</v>
+      </c>
+      <c r="N12">
+        <v>0.4717617189993959</v>
+      </c>
+      <c r="O12">
+        <v>1.932279901198029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>5.333398893056426</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.358646911339122</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.2879292740913542</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007323758235179278</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -899,30 +971,36 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.914105488072252</v>
+      </c>
+      <c r="N13">
+        <v>0.4738565983681156</v>
+      </c>
+      <c r="O13">
+        <v>1.921136710873768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>5.228054785204961</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.331770353232287</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.2820802480775413</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007341079823235397</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -940,30 +1018,36 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.875677490838981</v>
+      </c>
+      <c r="N14">
+        <v>0.4807759608054525</v>
+      </c>
+      <c r="O14">
+        <v>1.88504010736996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>5.163795337249837</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.315378739809148</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.2785195869874215</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007351691630337087</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -981,30 +1065,36 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.852249711001349</v>
+      </c>
+      <c r="N15">
+        <v>0.4850803797148515</v>
+      </c>
+      <c r="O15">
+        <v>1.863113121597564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4.79937839091815</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.222460793115943</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.2584316152870088</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007412562132951858</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1022,30 +1112,36 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.719579491695853</v>
+      </c>
+      <c r="N16">
+        <v>0.5107157623851108</v>
+      </c>
+      <c r="O16">
+        <v>1.740104995662421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4.578966092639462</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.166289682626712</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.2463693254505159</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007449987773410121</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1063,30 +1159,36 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.639493324426056</v>
+      </c>
+      <c r="N17">
+        <v>0.5272603932621891</v>
+      </c>
+      <c r="O17">
+        <v>1.666838571659127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4.453245518176004</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.134258751876246</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.2395192591347239</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007471556481171693</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1104,30 +1206,36 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.59386683634709</v>
+      </c>
+      <c r="N18">
+        <v>0.5370598486395082</v>
+      </c>
+      <c r="O18">
+        <v>1.625441946074943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>4.410850741979061</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.123458709840833</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.2372143064192187</v>
       </c>
       <c r="F19">
         <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007478867627415187</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1145,30 +1253,36 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.578489786703372</v>
+      </c>
+      <c r="N19">
+        <v>0.5404249054703882</v>
+      </c>
+      <c r="O19">
+        <v>1.61154798584171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4.602318001070159</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.172239893382994</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.2476441104132476</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007445999609827503</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1186,30 +1300,36 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.647972505543478</v>
+      </c>
+      <c r="N20">
+        <v>0.5254694827238637</v>
+      </c>
+      <c r="O20">
+        <v>1.674559525711743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>5.258940640864012</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.339649660523094</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.2837936043918248</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007335991746598114</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1227,30 +1347,36 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.886941433156764</v>
+      </c>
+      <c r="N21">
+        <v>0.4787296882275882</v>
+      </c>
+      <c r="O21">
+        <v>1.895603970086299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>5.699745568574428</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.452163848545013</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.3083833162831908</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007264209854865253</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1268,30 +1394,36 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2.047950637793207</v>
+      </c>
+      <c r="N22">
+        <v>0.4510937424231543</v>
+      </c>
+      <c r="O22">
+        <v>2.048097550992935</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>5.463292035672225</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.391795361350319</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.2951614642962852</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007302524664339506</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1309,30 +1441,36 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.961525328526207</v>
+      </c>
+      <c r="N23">
+        <v>0.4655566164977074</v>
+      </c>
+      <c r="O23">
+        <v>1.965899971035498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4.591757520434328</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.169548991821443</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.2470675181950028</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007447802492997081</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1350,30 +1488,36 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.64413778147464</v>
+      </c>
+      <c r="N24">
+        <v>0.5262782612391206</v>
+      </c>
+      <c r="O24">
+        <v>1.671066638175063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3.69105875190121</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.9401621926763255</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.1984754489473275</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007606240950399206</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1391,7 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.318107352237973</v>
+      </c>
+      <c r="N25">
+        <v>0.6024554489273655</v>
+      </c>
+      <c r="O25">
+        <v>1.380925051733641</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.051719650720827</v>
+        <v>1.239017703718162</v>
       </c>
       <c r="C2">
-        <v>0.7773857482015956</v>
+        <v>0.1353282970017489</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1647300528954361</v>
+        <v>0.02195061336574433</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.849500874431712</v>
       </c>
       <c r="G2">
-        <v>0.0007725564060969961</v>
+        <v>0.0008526288125360392</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.100591856518442</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.09638181705240001</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.239097558128492</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1899087823001295</v>
       </c>
       <c r="M2">
-        <v>1.087969505589321</v>
+        <v>0.2719209034580174</v>
       </c>
       <c r="N2">
-        <v>0.6660647908122783</v>
+        <v>1.882507669388346</v>
       </c>
       <c r="O2">
-        <v>1.185147598095512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.629157652130914</v>
+        <v>1.09398295898518</v>
       </c>
       <c r="C3">
-        <v>0.669750383635062</v>
+        <v>0.116828617065309</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.142803426503896</v>
+        <v>0.02089895173284972</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.766483616632627</v>
       </c>
       <c r="G3">
-        <v>0.0007808582237628008</v>
+        <v>0.000858525699422765</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.081431179114126</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0983516165296523</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.088312514314566</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1725439540869758</v>
       </c>
       <c r="M3">
-        <v>0.9364917101942822</v>
+        <v>0.2420887362445754</v>
       </c>
       <c r="N3">
-        <v>0.713181571194724</v>
+        <v>1.926640305743845</v>
       </c>
       <c r="O3">
-        <v>1.061076653371927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.373815554015891</v>
+        <v>1.006185762662909</v>
       </c>
       <c r="C4">
-        <v>0.6046625943650668</v>
+        <v>0.1056549766128256</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1297136857163856</v>
+        <v>0.02026711921498237</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.718013898344708</v>
       </c>
       <c r="G4">
-        <v>0.0007860756862588195</v>
+        <v>0.0008622605744440009</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.071143803467102</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.09957662984115601</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9970667883096382</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.162062281008879</v>
       </c>
       <c r="M4">
-        <v>0.8452173085911525</v>
+        <v>0.224043657660193</v>
       </c>
       <c r="N4">
-        <v>0.7438947838584369</v>
+        <v>1.955539304920848</v>
       </c>
       <c r="O4">
-        <v>0.9884259200590009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.270639267177387</v>
+        <v>0.9706937767379884</v>
       </c>
       <c r="C5">
-        <v>0.578347885790464</v>
+        <v>0.1011421811518716</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1244611677421084</v>
+        <v>0.0200130112669834</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.6988581040018</v>
       </c>
       <c r="G5">
-        <v>0.0007882339151472766</v>
+        <v>0.0008638119657139454</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.067305973673278</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1000799422399155</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.960185711040964</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1578333668610341</v>
       </c>
       <c r="M5">
-        <v>0.8083943016037622</v>
+        <v>0.2167528202614228</v>
       </c>
       <c r="N5">
-        <v>0.7568329804603806</v>
+        <v>1.967755927872552</v>
       </c>
       <c r="O5">
-        <v>0.9596117931254184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.253555625768627</v>
+        <v>0.9648168120208993</v>
       </c>
       <c r="C6">
-        <v>0.5739898082366039</v>
+        <v>0.1003951155941678</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1235935874495802</v>
+        <v>0.01997101687852165</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.69571235570325</v>
       </c>
       <c r="G6">
-        <v>0.0007885942760124962</v>
+        <v>0.0008640713682524511</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.06668962605977</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1001637707755245</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9540789434681756</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.157133640981364</v>
       </c>
       <c r="M6">
-        <v>0.8023005834839836</v>
+        <v>0.2155458072549443</v>
       </c>
       <c r="N6">
-        <v>0.7590061467058931</v>
+        <v>1.969810704038117</v>
       </c>
       <c r="O6">
-        <v>0.9548724032986797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.372420725358438</v>
+        <v>1.005705984574831</v>
       </c>
       <c r="C7">
-        <v>0.6043069117475284</v>
+        <v>0.1055939589509478</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1296425331092728</v>
+        <v>0.02026367874221524</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.717753186156315</v>
       </c>
       <c r="G7">
-        <v>0.0007861046607203973</v>
+        <v>0.0008622813771419669</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.071090632250993</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0995834007903591</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9965682164728662</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1620050802306849</v>
       </c>
       <c r="M7">
-        <v>0.8447192743887726</v>
+        <v>0.2239450844013149</v>
       </c>
       <c r="N7">
-        <v>0.7440675957296676</v>
+        <v>1.955702297317352</v>
       </c>
       <c r="O7">
-        <v>0.9880342377495026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.905067816687108</v>
+        <v>1.188730987568988</v>
       </c>
       <c r="C8">
-        <v>0.7400384326177516</v>
+        <v>0.1289074034450266</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.157084550771927</v>
+        <v>0.0215850386075882</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.820336207276654</v>
       </c>
       <c r="G8">
-        <v>0.0007753951199222352</v>
+        <v>0.0008546387933779931</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.093667980079566</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.09705789993409919</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.186808307137113</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1838821379451474</v>
       </c>
       <c r="M8">
-        <v>1.035339778559049</v>
+        <v>0.261574763540338</v>
       </c>
       <c r="N8">
-        <v>0.6819240362278052</v>
+        <v>1.89734269370534</v>
       </c>
       <c r="O8">
-        <v>1.141574897948587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.990148337422511</v>
+        <v>1.559037443238708</v>
       </c>
       <c r="C9">
-        <v>1.016313215143072</v>
+        <v>0.1763900245163939</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2144801233184026</v>
+        <v>0.02429278870012297</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>2.042986608321172</v>
       </c>
       <c r="G9">
-        <v>0.000755252811680273</v>
+        <v>0.0008405241179831813</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.150495935578796</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.09221920355400037</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.572133099509898</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2283564839393932</v>
       </c>
       <c r="M9">
-        <v>1.426141219991152</v>
+        <v>0.3378039642863016</v>
       </c>
       <c r="N9">
-        <v>0.5755262043925384</v>
+        <v>1.797816958077689</v>
       </c>
       <c r="O9">
-        <v>1.475515246267406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.824679053098009</v>
+        <v>1.840229954332273</v>
       </c>
       <c r="C10">
-        <v>1.228909862582498</v>
+        <v>0.212800849781388</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2598204808275568</v>
+        <v>0.02636324072950025</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.222109782683248</v>
       </c>
       <c r="G10">
-        <v>0.0007408296530248806</v>
+        <v>0.0008306358895360063</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.201153425910981</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.08871944089912365</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.865220491425475</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2622056505895927</v>
       </c>
       <c r="M10">
-        <v>1.728780043828053</v>
+        <v>0.3957184617715228</v>
       </c>
       <c r="N10">
-        <v>0.5088675284774169</v>
+        <v>1.734725979903459</v>
       </c>
       <c r="O10">
-        <v>1.748570469277908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.215750807664051</v>
+        <v>1.970666547113694</v>
       </c>
       <c r="C11">
-        <v>1.32863162326737</v>
+        <v>0.2298073672957344</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2813980516307311</v>
+        <v>0.02732528223507202</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>2.307566952904821</v>
       </c>
       <c r="G11">
-        <v>0.0007343108989798071</v>
+        <v>0.0008262300618532261</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.226438923948379</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.08713598485257634</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.001337557835683</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2779113082480791</v>
       </c>
       <c r="M11">
-        <v>1.871190922125407</v>
+        <v>0.4225827224788077</v>
       </c>
       <c r="N11">
-        <v>0.4815952145635052</v>
+        <v>1.708432504328798</v>
       </c>
       <c r="O11">
-        <v>1.880836267103746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.365810104751233</v>
+        <v>2.020470285164322</v>
       </c>
       <c r="C12">
-        <v>1.366917270185638</v>
+        <v>0.2363212570436986</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2897317895619267</v>
+        <v>0.02769271881601654</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.340552795746135</v>
       </c>
       <c r="G12">
-        <v>0.000731844727454356</v>
+        <v>0.0008245738933212976</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.236364240470834</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.08653732143753157</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.053338767750148</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2839074960523931</v>
       </c>
       <c r="M12">
-        <v>1.925933995505375</v>
+        <v>0.4328394041938139</v>
       </c>
       <c r="N12">
-        <v>0.4717617189993959</v>
+        <v>1.69884340451938</v>
       </c>
       <c r="O12">
-        <v>1.932279901198029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.333398893056426</v>
+        <v>2.009725107326744</v>
       </c>
       <c r="C13">
-        <v>1.358646911339122</v>
+        <v>0.2349149150611538</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2879292740913542</v>
+        <v>0.0276134415177598</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.333419997997652</v>
       </c>
       <c r="G13">
-        <v>0.0007323758235179278</v>
+        <v>0.0008249300530721383</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.234210595883923</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.08666621639763061</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.042118130921807</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2826138625582786</v>
       </c>
       <c r="M13">
-        <v>1.914105488072252</v>
+        <v>0.4306265636952702</v>
       </c>
       <c r="N13">
-        <v>0.4738565983681156</v>
+        <v>1.700891871584361</v>
       </c>
       <c r="O13">
-        <v>1.921136710873768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.228054785204961</v>
+        <v>1.974755420099143</v>
       </c>
       <c r="C14">
-        <v>1.331770353232287</v>
+        <v>0.23034172612779</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2820802480775413</v>
+        <v>0.02735544727580397</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>2.310267866165077</v>
       </c>
       <c r="G14">
-        <v>0.0007341079823235397</v>
+        <v>0.0008260935692105268</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.22724829693459</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.08708671493903886</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.005606241541273</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2784036127137739</v>
       </c>
       <c r="M14">
-        <v>1.875677490838981</v>
+        <v>0.4234248115087027</v>
       </c>
       <c r="N14">
-        <v>0.4807759608054525</v>
+        <v>1.707636103994005</v>
       </c>
       <c r="O14">
-        <v>1.88504010736996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.163795337249837</v>
+        <v>1.953390391622065</v>
       </c>
       <c r="C15">
-        <v>1.315378739809148</v>
+        <v>0.2275504579361751</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2785195869874215</v>
+        <v>0.02719783354906369</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.296169594141219</v>
       </c>
       <c r="G15">
-        <v>0.0007351691630337087</v>
+        <v>0.0008268078152521129</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.22303017383387</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.08734439846470465</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.983302853085149</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2758312100914537</v>
       </c>
       <c r="M15">
-        <v>1.852249711001349</v>
+        <v>0.4190247258971596</v>
       </c>
       <c r="N15">
-        <v>0.4850803797148515</v>
+        <v>1.711815696661034</v>
       </c>
       <c r="O15">
-        <v>1.863113121597564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.79937839091815</v>
+        <v>1.831760325676441</v>
       </c>
       <c r="C16">
-        <v>1.222460793115943</v>
+        <v>0.2116991968946991</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2584316152870088</v>
+        <v>0.0263007942683906</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.216609393389334</v>
       </c>
       <c r="G16">
-        <v>0.0007412562132951858</v>
+        <v>0.0008309255909159981</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.199548391166488</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.08882307303939907</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.856385688823906</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2611858195187864</v>
       </c>
       <c r="M16">
-        <v>1.719579491695853</v>
+        <v>0.3939740232530085</v>
       </c>
       <c r="N16">
-        <v>0.5107157623851108</v>
+        <v>1.736494551315189</v>
       </c>
       <c r="O16">
-        <v>1.740104995662421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.578966092639462</v>
+        <v>1.757822499593203</v>
       </c>
       <c r="C17">
-        <v>1.166289682626712</v>
+        <v>0.2020953731004624</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2463693254505159</v>
+        <v>0.02575581474026301</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>2.168856195108432</v>
       </c>
       <c r="G17">
-        <v>0.0007449987773410121</v>
+        <v>0.0008334746451000043</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.18573621617854</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.08973220154728345</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.7792786122493</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2522832468045664</v>
       </c>
       <c r="M17">
-        <v>1.639493324426056</v>
+        <v>0.3787453606671605</v>
       </c>
       <c r="N17">
-        <v>0.5272603932621891</v>
+        <v>1.752265419926957</v>
       </c>
       <c r="O17">
-        <v>1.666838571659127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.453245518176004</v>
+        <v>1.715529578893751</v>
       </c>
       <c r="C18">
-        <v>1.134258751876246</v>
+        <v>0.1966125439713551</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2395192591347239</v>
+        <v>0.02544424137346901</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.141760308213094</v>
       </c>
       <c r="G18">
-        <v>0.0007471556481171693</v>
+        <v>0.0008349495570543208</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.178000949389563</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.09025593577786228</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.735187680355693</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2471913706503273</v>
       </c>
       <c r="M18">
-        <v>1.59386683634709</v>
+        <v>0.3700344608414454</v>
       </c>
       <c r="N18">
-        <v>0.5370598486395082</v>
+        <v>1.761561554233225</v>
       </c>
       <c r="O18">
-        <v>1.625441946074943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.410850741979061</v>
+        <v>1.701248753091676</v>
       </c>
       <c r="C19">
-        <v>1.123458709840833</v>
+        <v>0.1947629060488794</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2372143064192187</v>
+        <v>0.02533906504020855</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.132648175952895</v>
       </c>
       <c r="G19">
-        <v>0.0007478867627415187</v>
+        <v>0.0008354504729345332</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.175417027430726</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.09043341358481172</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.720302127527646</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.245472135749992</v>
       </c>
       <c r="M19">
-        <v>1.578489786703372</v>
+        <v>0.3670931152627759</v>
       </c>
       <c r="N19">
-        <v>0.5404249054703882</v>
+        <v>1.764747110222103</v>
       </c>
       <c r="O19">
-        <v>1.61154798584171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.602318001070159</v>
+        <v>1.765668740092707</v>
       </c>
       <c r="C20">
-        <v>1.172239893382994</v>
+        <v>0.2031133988447067</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2476441104132476</v>
+        <v>0.02581363212292587</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>2.173900885805963</v>
       </c>
       <c r="G20">
-        <v>0.0007445999609827503</v>
+        <v>0.0008332023943531233</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.18718470685458</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.08963533959186432</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.787459599205278</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2532279439089393</v>
       </c>
       <c r="M20">
-        <v>1.647972505543478</v>
+        <v>0.3803614227626042</v>
       </c>
       <c r="N20">
-        <v>0.5254694827238637</v>
+        <v>1.750563132282409</v>
       </c>
       <c r="O20">
-        <v>1.674559525711743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.258940640864012</v>
+        <v>1.985015329384566</v>
       </c>
       <c r="C21">
-        <v>1.339649660523094</v>
+        <v>0.2316828910401085</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2837936043918248</v>
+        <v>0.02743113946403852</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>2.317050792663792</v>
       </c>
       <c r="G21">
-        <v>0.0007335991746598114</v>
+        <v>0.0008257514934840858</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.229283551709315</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.08696318066952724</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.016317808732083</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2796389024791921</v>
       </c>
       <c r="M21">
-        <v>1.886941433156764</v>
+        <v>0.4255377900141823</v>
       </c>
       <c r="N21">
-        <v>0.4787296882275882</v>
+        <v>1.70564499916658</v>
       </c>
       <c r="O21">
-        <v>1.895603970086299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.699745568574428</v>
+        <v>2.130787488429803</v>
       </c>
       <c r="C22">
-        <v>1.452163848545013</v>
+        <v>0.2507908717436322</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3083833162831908</v>
+        <v>0.02850665785830486</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>2.414279325849591</v>
       </c>
       <c r="G22">
-        <v>0.0007264209854865253</v>
+        <v>0.0008209525854126851</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.258853954824474</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.08522220596482555</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.168580959950901</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2971868144542782</v>
       </c>
       <c r="M22">
-        <v>2.047950637793207</v>
+        <v>0.4555562867234855</v>
       </c>
       <c r="N22">
-        <v>0.4510937424231543</v>
+        <v>1.678442960859087</v>
       </c>
       <c r="O22">
-        <v>2.048097550992935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.463292035672225</v>
+        <v>2.052748111451479</v>
       </c>
       <c r="C23">
-        <v>1.391795361350319</v>
+        <v>0.2405490400454653</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2951614642962852</v>
+        <v>0.02793086832961578</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.362031648197529</v>
       </c>
       <c r="G23">
-        <v>0.0007302524664339506</v>
+        <v>0.0008235077593054789</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.242873595068346</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.08615099669969517</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.087049350139324</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2877933063275719</v>
       </c>
       <c r="M23">
-        <v>1.961525328526207</v>
+        <v>0.4394864792720483</v>
       </c>
       <c r="N23">
-        <v>0.4655566164977074</v>
+        <v>1.692756396314721</v>
       </c>
       <c r="O23">
-        <v>1.965899971035498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.591757520434328</v>
+        <v>1.762120788891622</v>
       </c>
       <c r="C24">
-        <v>1.169548991821443</v>
+        <v>0.2026530301283174</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2470675181950028</v>
+        <v>0.02578748747339077</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.171619069860952</v>
       </c>
       <c r="G24">
-        <v>0.0007447802492997081</v>
+        <v>0.0008333254494458541</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.186529206103287</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.08967912754631424</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.783760234842219</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2528007646728128</v>
       </c>
       <c r="M24">
-        <v>1.64413778147464</v>
+        <v>0.3796306639102838</v>
       </c>
       <c r="N24">
-        <v>0.5262782612391206</v>
+        <v>1.751332024063657</v>
       </c>
       <c r="O24">
-        <v>1.671066638175063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.69105875190121</v>
+        <v>1.457425020090795</v>
       </c>
       <c r="C25">
-        <v>0.9401621926763255</v>
+        <v>0.1633117475877839</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1984754489473275</v>
+        <v>0.02354681998314234</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>1.980212749034038</v>
       </c>
       <c r="G25">
-        <v>0.0007606240950399206</v>
+        <v>0.0008442540672211167</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.13365526548143</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.09351743203258156</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.466332408250054</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2161353257705798</v>
       </c>
       <c r="M25">
-        <v>1.318107352237973</v>
+        <v>0.3168793002717152</v>
       </c>
       <c r="N25">
-        <v>0.6024554489273655</v>
+        <v>1.823052463934232</v>
       </c>
       <c r="O25">
-        <v>1.380925051733641</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.239017703718162</v>
+        <v>1.189483029958524</v>
       </c>
       <c r="C2">
-        <v>0.1353282970017489</v>
+        <v>0.04738906652589492</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02195061336574433</v>
+        <v>0.0736173268394662</v>
       </c>
       <c r="F2">
-        <v>1.849500874431712</v>
+        <v>3.232318159589937</v>
       </c>
       <c r="G2">
-        <v>0.0008526288125360392</v>
+        <v>0.002596794289770324</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.100591856518442</v>
+        <v>2.059841795425797</v>
       </c>
       <c r="J2">
-        <v>0.09638181705240001</v>
+        <v>0.1688416664118542</v>
       </c>
       <c r="K2">
-        <v>1.239097558128492</v>
+        <v>0.9787752588754586</v>
       </c>
       <c r="L2">
-        <v>0.1899087823001295</v>
+        <v>0.3249379500940179</v>
       </c>
       <c r="M2">
-        <v>0.2719209034580174</v>
+        <v>0.3203958102452553</v>
       </c>
       <c r="N2">
-        <v>1.882507669388346</v>
+        <v>3.558174591686011</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.09398295898518</v>
+        <v>1.15796167866759</v>
       </c>
       <c r="C3">
-        <v>0.116828617065309</v>
+        <v>0.04216601487478044</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02089895173284972</v>
+        <v>0.07364045575576039</v>
       </c>
       <c r="F3">
-        <v>1.766483616632627</v>
+        <v>3.22648453291049</v>
       </c>
       <c r="G3">
-        <v>0.000858525699422765</v>
+        <v>0.002600551967295604</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.081431179114126</v>
+        <v>2.063353970474147</v>
       </c>
       <c r="J3">
-        <v>0.0983516165296523</v>
+        <v>0.1692261346921278</v>
       </c>
       <c r="K3">
-        <v>1.088312514314566</v>
+        <v>0.9439639254313192</v>
       </c>
       <c r="L3">
-        <v>0.1725439540869758</v>
+        <v>0.3223180992656935</v>
       </c>
       <c r="M3">
-        <v>0.2420887362445754</v>
+        <v>0.3144656596694198</v>
       </c>
       <c r="N3">
-        <v>1.926640305743845</v>
+        <v>3.577458116180772</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.006185762662909</v>
+        <v>1.139243508251411</v>
       </c>
       <c r="C4">
-        <v>0.1056549766128256</v>
+        <v>0.0389763259432101</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02026711921498237</v>
+        <v>0.07367131596500087</v>
       </c>
       <c r="F4">
-        <v>1.718013898344708</v>
+        <v>3.224198904527071</v>
       </c>
       <c r="G4">
-        <v>0.0008622605744440009</v>
+        <v>0.002602982452954895</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.071143803467102</v>
+        <v>2.066241062877985</v>
       </c>
       <c r="J4">
-        <v>0.09957662984115601</v>
+        <v>0.1694691947591052</v>
       </c>
       <c r="K4">
-        <v>0.9970667883096382</v>
+        <v>0.9231443203630079</v>
       </c>
       <c r="L4">
-        <v>0.162062281008879</v>
+        <v>0.3208449698894427</v>
       </c>
       <c r="M4">
-        <v>0.224043657660193</v>
+        <v>0.3109842323870922</v>
       </c>
       <c r="N4">
-        <v>1.955539304920848</v>
+        <v>3.590137767256664</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9706937767379884</v>
+        <v>1.131775976078757</v>
       </c>
       <c r="C5">
-        <v>0.1011421811518716</v>
+        <v>0.03768075663448656</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0200130112669834</v>
+        <v>0.07368809907461138</v>
       </c>
       <c r="F5">
-        <v>1.6988581040018</v>
+        <v>3.223593717063153</v>
       </c>
       <c r="G5">
-        <v>0.0008638119657139454</v>
+        <v>0.002604003986001116</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.067305973673278</v>
+        <v>2.067601368801874</v>
       </c>
       <c r="J5">
-        <v>0.1000799422399155</v>
+        <v>0.1695700089675549</v>
       </c>
       <c r="K5">
-        <v>0.960185711040964</v>
+        <v>0.9147997706300828</v>
       </c>
       <c r="L5">
-        <v>0.1578333668610341</v>
+        <v>0.3202788282346987</v>
       </c>
       <c r="M5">
-        <v>0.2167528202614228</v>
+        <v>0.3096057833099444</v>
       </c>
       <c r="N5">
-        <v>1.967755927872552</v>
+        <v>3.59551593496235</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9648168120208993</v>
+        <v>1.130545688036619</v>
       </c>
       <c r="C6">
-        <v>0.1003951155941678</v>
+        <v>0.03746588264284867</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01997101687852165</v>
+        <v>0.07369114054868398</v>
       </c>
       <c r="F6">
-        <v>1.69571235570325</v>
+        <v>3.223512937464875</v>
       </c>
       <c r="G6">
-        <v>0.0008640713682524511</v>
+        <v>0.002604175491187844</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.06668962605977</v>
+        <v>2.067838349468587</v>
       </c>
       <c r="J6">
-        <v>0.1001637707755245</v>
+        <v>0.1695868558937317</v>
       </c>
       <c r="K6">
-        <v>0.9540789434681756</v>
+        <v>0.913422600334286</v>
       </c>
       <c r="L6">
-        <v>0.157133640981364</v>
+        <v>0.3201868877748595</v>
       </c>
       <c r="M6">
-        <v>0.2155458072549443</v>
+        <v>0.3093793275243115</v>
       </c>
       <c r="N6">
-        <v>1.969810704038117</v>
+        <v>3.596421726324493</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.005705984574831</v>
+        <v>1.139142149118811</v>
       </c>
       <c r="C7">
-        <v>0.1055939589509478</v>
+        <v>0.03895883633661867</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02026367874221524</v>
+        <v>0.07367152524800513</v>
       </c>
       <c r="F7">
-        <v>1.717753186156315</v>
+        <v>3.224189421528166</v>
       </c>
       <c r="G7">
-        <v>0.0008622813771419669</v>
+        <v>0.00260299610379695</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.071090632250993</v>
+        <v>2.066258664175756</v>
       </c>
       <c r="J7">
-        <v>0.0995834007903591</v>
+        <v>0.1694705472192819</v>
       </c>
       <c r="K7">
-        <v>0.9965682164728662</v>
+        <v>0.9230312174097435</v>
       </c>
       <c r="L7">
-        <v>0.1620050802306849</v>
+        <v>0.3208371962086503</v>
       </c>
       <c r="M7">
-        <v>0.2239450844013149</v>
+        <v>0.3109654789923439</v>
       </c>
       <c r="N7">
-        <v>1.955702297317352</v>
+        <v>3.590209444340957</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.188730987568988</v>
+        <v>1.178482636573051</v>
       </c>
       <c r="C8">
-        <v>0.1289074034450266</v>
+        <v>0.04558451373763717</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0215850386075882</v>
+        <v>0.07362185497687435</v>
       </c>
       <c r="F8">
-        <v>1.820336207276654</v>
+        <v>3.230037844960904</v>
       </c>
       <c r="G8">
-        <v>0.0008546387933779931</v>
+        <v>0.002598064413168236</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.093667980079566</v>
+        <v>2.060901199097522</v>
       </c>
       <c r="J8">
-        <v>0.09705789993409919</v>
+        <v>0.1689727830956187</v>
       </c>
       <c r="K8">
-        <v>1.186808307137113</v>
+        <v>0.9666572455122093</v>
       </c>
       <c r="L8">
-        <v>0.1838821379451474</v>
+        <v>0.3240065705064623</v>
       </c>
       <c r="M8">
-        <v>0.261574763540338</v>
+        <v>0.318318004231859</v>
       </c>
       <c r="N8">
-        <v>1.89734269370534</v>
+        <v>3.564649321609096</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.559037443238708</v>
+        <v>1.260667190518063</v>
       </c>
       <c r="C9">
-        <v>0.1763900245163939</v>
+        <v>0.05871938903169394</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02429278870012297</v>
+        <v>0.07365586808071534</v>
       </c>
       <c r="F9">
-        <v>2.042986608321172</v>
+        <v>3.251783662762676</v>
       </c>
       <c r="G9">
-        <v>0.0008405241179831813</v>
+        <v>0.002589366962884475</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.150495935578796</v>
+        <v>2.056190347762723</v>
       </c>
       <c r="J9">
-        <v>0.09221920355400037</v>
+        <v>0.1680518670339923</v>
       </c>
       <c r="K9">
-        <v>1.572133099509898</v>
+        <v>1.056609317450153</v>
       </c>
       <c r="L9">
-        <v>0.2283564839393932</v>
+        <v>0.3312926063999271</v>
       </c>
       <c r="M9">
-        <v>0.3378039642863016</v>
+        <v>0.3340002212908644</v>
       </c>
       <c r="N9">
-        <v>1.797816958077689</v>
+        <v>3.521186367328113</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.840229954332273</v>
+        <v>1.324115723942214</v>
       </c>
       <c r="C10">
-        <v>0.212800849781388</v>
+        <v>0.06846366451142671</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02636324072950025</v>
+        <v>0.07376000075233335</v>
       </c>
       <c r="F10">
-        <v>2.222109782683248</v>
+        <v>3.274020676924039</v>
       </c>
       <c r="G10">
-        <v>0.0008306358895360063</v>
+        <v>0.002583564294726887</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.201153425910981</v>
+        <v>2.056261801238385</v>
       </c>
       <c r="J10">
-        <v>0.08871944089912365</v>
+        <v>0.1674084710454435</v>
       </c>
       <c r="K10">
-        <v>1.865220491425475</v>
+        <v>1.125389498153169</v>
       </c>
       <c r="L10">
-        <v>0.2622056505895927</v>
+        <v>0.3372941079723972</v>
       </c>
       <c r="M10">
-        <v>0.3957184617715228</v>
+        <v>0.3462897476069244</v>
       </c>
       <c r="N10">
-        <v>1.734725979903459</v>
+        <v>3.493313479448403</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.970666547113694</v>
+        <v>1.353645975845325</v>
       </c>
       <c r="C11">
-        <v>0.2298073672957344</v>
+        <v>0.07291870012041102</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02732528223507202</v>
+        <v>0.0738243580552318</v>
       </c>
       <c r="F11">
-        <v>2.307566952904821</v>
+        <v>3.285495692021115</v>
       </c>
       <c r="G11">
-        <v>0.0008262300618532261</v>
+        <v>0.002581050733931255</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.226438923948379</v>
+        <v>2.057061489136359</v>
       </c>
       <c r="J11">
-        <v>0.08713598485257634</v>
+        <v>0.1671228870898833</v>
       </c>
       <c r="K11">
-        <v>2.001337557835683</v>
+        <v>1.157266543000361</v>
       </c>
       <c r="L11">
-        <v>0.2779113082480791</v>
+        <v>0.3401642862137209</v>
       </c>
       <c r="M11">
-        <v>0.4225827224788077</v>
+        <v>0.3520468313041931</v>
       </c>
       <c r="N11">
-        <v>1.708432504328798</v>
+        <v>3.48151470586447</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.020470285164322</v>
+        <v>1.36492406447752</v>
       </c>
       <c r="C12">
-        <v>0.2363212570436986</v>
+        <v>0.07460903096180971</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02769271881601654</v>
+        <v>0.07385115380931673</v>
       </c>
       <c r="F12">
-        <v>2.340552795746135</v>
+        <v>3.290036292144237</v>
       </c>
       <c r="G12">
-        <v>0.0008245738933212976</v>
+        <v>0.002580116947846428</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.236364240470834</v>
+        <v>2.057474610403361</v>
       </c>
       <c r="J12">
-        <v>0.08653732143753157</v>
+        <v>0.1670157583185805</v>
       </c>
       <c r="K12">
-        <v>2.053338767750148</v>
+        <v>1.169422216053107</v>
       </c>
       <c r="L12">
-        <v>0.2839074960523931</v>
+        <v>0.3412711982014685</v>
       </c>
       <c r="M12">
-        <v>0.4328394041938139</v>
+        <v>0.3542507607622127</v>
       </c>
       <c r="N12">
-        <v>1.69884340451938</v>
+        <v>3.477173488966244</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.009725107326744</v>
+        <v>1.362490878478525</v>
       </c>
       <c r="C13">
-        <v>0.2349149150611538</v>
+        <v>0.07424483941402116</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0276134415177598</v>
+        <v>0.07384527528951956</v>
       </c>
       <c r="F13">
-        <v>2.333419997997652</v>
+        <v>3.289049711573639</v>
       </c>
       <c r="G13">
-        <v>0.0008249300530721383</v>
+        <v>0.002580317254358134</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.234210595883923</v>
+        <v>2.057380732207577</v>
       </c>
       <c r="J13">
-        <v>0.08666621639763061</v>
+        <v>0.1670387853268878</v>
       </c>
       <c r="K13">
-        <v>2.042118130921807</v>
+        <v>1.166800516705592</v>
       </c>
       <c r="L13">
-        <v>0.2826138625582786</v>
+        <v>0.3410319153565382</v>
       </c>
       <c r="M13">
-        <v>0.4306265636952702</v>
+        <v>0.3537750460815943</v>
       </c>
       <c r="N13">
-        <v>1.700891871584361</v>
+        <v>3.478102810471526</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.974755420099143</v>
+        <v>1.354571916369991</v>
       </c>
       <c r="C14">
-        <v>0.23034172612779</v>
+        <v>0.07305769785418192</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02735544727580397</v>
+        <v>0.07382651405725404</v>
       </c>
       <c r="F14">
-        <v>2.310267866165077</v>
+        <v>3.285865337755581</v>
       </c>
       <c r="G14">
-        <v>0.0008260935692105268</v>
+        <v>0.002580973549818529</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.22724829693459</v>
+        <v>2.05709326648379</v>
       </c>
       <c r="J14">
-        <v>0.08708671493903886</v>
+        <v>0.167114053215589</v>
       </c>
       <c r="K14">
-        <v>2.005606241541273</v>
+        <v>1.15826490409907</v>
       </c>
       <c r="L14">
-        <v>0.2784036127137739</v>
+        <v>0.3402549515330833</v>
       </c>
       <c r="M14">
-        <v>0.4234248115087027</v>
+        <v>0.3522276725409839</v>
       </c>
       <c r="N14">
-        <v>1.707636103994005</v>
+        <v>3.481155011197359</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.953390391622065</v>
+        <v>1.349733766966779</v>
       </c>
       <c r="C15">
-        <v>0.2275504579361751</v>
+        <v>0.07233097272222722</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02719783354906369</v>
+        <v>0.07381533755115477</v>
       </c>
       <c r="F15">
-        <v>2.296169594141219</v>
+        <v>3.283940239623504</v>
       </c>
       <c r="G15">
-        <v>0.0008268078152521129</v>
+        <v>0.002581377897037604</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.22303017383387</v>
+        <v>2.056931548681249</v>
       </c>
       <c r="J15">
-        <v>0.08734439846470465</v>
+        <v>0.1671602890858477</v>
       </c>
       <c r="K15">
-        <v>1.983302853085149</v>
+        <v>1.153047599700955</v>
       </c>
       <c r="L15">
-        <v>0.2758312100914537</v>
+        <v>0.339781645206088</v>
       </c>
       <c r="M15">
-        <v>0.4190247258971596</v>
+        <v>0.3512829642266126</v>
       </c>
       <c r="N15">
-        <v>1.711815696661034</v>
+        <v>3.483041077523836</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.831760325676441</v>
+        <v>1.322199250893618</v>
       </c>
       <c r="C16">
-        <v>0.2116991968946991</v>
+        <v>0.06817297475286921</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0263007942683906</v>
+        <v>0.07375613515813129</v>
       </c>
       <c r="F16">
-        <v>2.216609393389334</v>
+        <v>3.27329809260371</v>
       </c>
       <c r="G16">
-        <v>0.0008309255909159981</v>
+        <v>0.002583731091724999</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.199548391166488</v>
+        <v>2.056224975401946</v>
       </c>
       <c r="J16">
-        <v>0.08882307303939907</v>
+        <v>0.1674272770437648</v>
       </c>
       <c r="K16">
-        <v>1.856385688823906</v>
+        <v>1.123318092770745</v>
       </c>
       <c r="L16">
-        <v>0.2611858195187864</v>
+        <v>0.3371093446918536</v>
       </c>
       <c r="M16">
-        <v>0.3939740232530085</v>
+        <v>0.3459168509884734</v>
       </c>
       <c r="N16">
-        <v>1.736494551315189</v>
+        <v>3.494102285981057</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.757822499593203</v>
+        <v>1.305478374168956</v>
       </c>
       <c r="C17">
-        <v>0.2020953731004624</v>
+        <v>0.06562796185737341</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02575581474026301</v>
+        <v>0.07372415454412717</v>
       </c>
       <c r="F17">
-        <v>2.168856195108432</v>
+        <v>3.267117480560998</v>
       </c>
       <c r="G17">
-        <v>0.0008334746451000043</v>
+        <v>0.0025852069350679</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.18573621617854</v>
+        <v>2.055987992344569</v>
       </c>
       <c r="J17">
-        <v>0.08973220154728345</v>
+        <v>0.1675928801984989</v>
       </c>
       <c r="K17">
-        <v>1.7792786122493</v>
+        <v>1.105230676557539</v>
       </c>
       <c r="L17">
-        <v>0.2522832468045664</v>
+        <v>0.3355057751890627</v>
       </c>
       <c r="M17">
-        <v>0.3787453606671605</v>
+        <v>0.3426674932231322</v>
       </c>
       <c r="N17">
-        <v>1.752265419926957</v>
+        <v>3.501113609032515</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.715529578893751</v>
+        <v>1.295923786618374</v>
       </c>
       <c r="C18">
-        <v>0.1966125439713551</v>
+        <v>0.064166232428434</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02544424137346901</v>
+        <v>0.07370736006894774</v>
       </c>
       <c r="F18">
-        <v>2.141760308213094</v>
+        <v>3.26369051028496</v>
       </c>
       <c r="G18">
-        <v>0.0008349495570543208</v>
+        <v>0.002586067675486192</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.178000949389563</v>
+        <v>2.055923898092416</v>
       </c>
       <c r="J18">
-        <v>0.09025593577786228</v>
+        <v>0.167688799356009</v>
       </c>
       <c r="K18">
-        <v>1.735187680355693</v>
+        <v>1.094882681033425</v>
       </c>
       <c r="L18">
-        <v>0.2471913706503273</v>
+        <v>0.3345966341687756</v>
       </c>
       <c r="M18">
-        <v>0.3700344608414454</v>
+        <v>0.3408142277256232</v>
       </c>
       <c r="N18">
-        <v>1.761561554233225</v>
+        <v>3.505229231640484</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.701248753091676</v>
+        <v>1.292699566347125</v>
       </c>
       <c r="C19">
-        <v>0.1947629060488794</v>
+        <v>0.06367167278696684</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02533906504020855</v>
+        <v>0.07370194907698568</v>
       </c>
       <c r="F19">
-        <v>2.132648175952895</v>
+        <v>3.262552179548038</v>
       </c>
       <c r="G19">
-        <v>0.0008354504729345332</v>
+        <v>0.00258636114972476</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.175417027430726</v>
+        <v>2.055914600140966</v>
       </c>
       <c r="J19">
-        <v>0.09043341358481172</v>
+        <v>0.1677213909327531</v>
       </c>
       <c r="K19">
-        <v>1.720302127527646</v>
+        <v>1.09138854735059</v>
       </c>
       <c r="L19">
-        <v>0.245472135749992</v>
+        <v>0.3342910831492816</v>
       </c>
       <c r="M19">
-        <v>0.3670931152627759</v>
+        <v>0.3401894397791168</v>
       </c>
       <c r="N19">
-        <v>1.764747110222103</v>
+        <v>3.506636945904916</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.765668740092707</v>
+        <v>1.307251840881577</v>
       </c>
       <c r="C20">
-        <v>0.2031133988447067</v>
+        <v>0.06589866533749955</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.02581363212292587</v>
+        <v>0.07372739347699131</v>
       </c>
       <c r="F20">
-        <v>2.173900885805963</v>
+        <v>3.267762175945336</v>
       </c>
       <c r="G20">
-        <v>0.0008332023943531233</v>
+        <v>0.002585048600643842</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.18718470685458</v>
+        <v>2.056005746079549</v>
       </c>
       <c r="J20">
-        <v>0.08963533959186432</v>
+        <v>0.1675751823002116</v>
       </c>
       <c r="K20">
-        <v>1.787459599205278</v>
+        <v>1.107150379197833</v>
       </c>
       <c r="L20">
-        <v>0.2532279439089393</v>
+        <v>0.3356751135622744</v>
       </c>
       <c r="M20">
-        <v>0.3803614227626042</v>
+        <v>0.3430117708840825</v>
       </c>
       <c r="N20">
-        <v>1.750563132282409</v>
+        <v>3.50035866187126</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.985015329384566</v>
+        <v>1.356895314841097</v>
       </c>
       <c r="C21">
-        <v>0.2316828910401085</v>
+        <v>0.0734062996243523</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.02743113946403852</v>
+        <v>0.07383195901113027</v>
       </c>
       <c r="F21">
-        <v>2.317050792663792</v>
+        <v>3.286795367809006</v>
       </c>
       <c r="G21">
-        <v>0.0008257514934840858</v>
+        <v>0.002580780290733581</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.229283551709315</v>
+        <v>2.057174708883366</v>
       </c>
       <c r="J21">
-        <v>0.08696318066952724</v>
+        <v>0.1670919176890138</v>
       </c>
       <c r="K21">
-        <v>2.016317808732083</v>
+        <v>1.16076972723576</v>
       </c>
       <c r="L21">
-        <v>0.2796389024791921</v>
+        <v>0.3404826216443695</v>
       </c>
       <c r="M21">
-        <v>0.4255377900141823</v>
+        <v>0.3526815272416499</v>
       </c>
       <c r="N21">
-        <v>1.70564499916658</v>
+        <v>3.480255066041281</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.130787488429803</v>
+        <v>1.389897413866549</v>
       </c>
       <c r="C22">
-        <v>0.2507908717436322</v>
+        <v>0.07833228498100198</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.02850665785830486</v>
+        <v>0.07391442552824046</v>
       </c>
       <c r="F22">
-        <v>2.414279325849591</v>
+        <v>3.300372697489379</v>
       </c>
       <c r="G22">
-        <v>0.0008209525854126851</v>
+        <v>0.002578095840687467</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.258853954824474</v>
+        <v>2.058581578915934</v>
       </c>
       <c r="J22">
-        <v>0.08522220596482555</v>
+        <v>0.1667819940794537</v>
       </c>
       <c r="K22">
-        <v>2.168580959950901</v>
+        <v>1.19630571499917</v>
       </c>
       <c r="L22">
-        <v>0.2971868144542782</v>
+        <v>0.3437413539215868</v>
       </c>
       <c r="M22">
-        <v>0.4555562867234855</v>
+        <v>0.3591402244024735</v>
       </c>
       <c r="N22">
-        <v>1.678442960859087</v>
+        <v>3.467854876968758</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.052748111451479</v>
+        <v>1.372232691484726</v>
       </c>
       <c r="C23">
-        <v>0.2405490400454653</v>
+        <v>0.0757013947908689</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02793086832961578</v>
+        <v>0.07386912477884877</v>
       </c>
       <c r="F23">
-        <v>2.362031648197529</v>
+        <v>3.293022156636695</v>
       </c>
       <c r="G23">
-        <v>0.0008235077593054789</v>
+        <v>0.002579518991510209</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.242873595068346</v>
+        <v>2.057771888888055</v>
       </c>
       <c r="J23">
-        <v>0.08615099669969517</v>
+        <v>0.1669468663924745</v>
       </c>
       <c r="K23">
-        <v>2.087049350139324</v>
+        <v>1.177294448612656</v>
       </c>
       <c r="L23">
-        <v>0.2877933063275719</v>
+        <v>0.3419914587920658</v>
       </c>
       <c r="M23">
-        <v>0.4394864792720483</v>
+        <v>0.355680414256021</v>
       </c>
       <c r="N23">
-        <v>1.692756396314721</v>
+        <v>3.474405477518687</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.762120788891622</v>
+        <v>1.306449874435856</v>
       </c>
       <c r="C24">
-        <v>0.2026530301283174</v>
+        <v>0.06577627584165668</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02578748747339077</v>
+        <v>0.07372592419709889</v>
       </c>
       <c r="F24">
-        <v>2.171619069860952</v>
+        <v>3.267470315575935</v>
       </c>
       <c r="G24">
-        <v>0.0008333254494458541</v>
+        <v>0.002585120145456176</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.186529206103287</v>
+        <v>2.05599749485809</v>
       </c>
       <c r="J24">
-        <v>0.08967912754631424</v>
+        <v>0.167583181301671</v>
       </c>
       <c r="K24">
-        <v>1.783760234842219</v>
+        <v>1.106282323696774</v>
       </c>
       <c r="L24">
-        <v>0.2528007646728128</v>
+        <v>0.3355985158927268</v>
       </c>
       <c r="M24">
-        <v>0.3796306639102838</v>
+        <v>0.3428560767413131</v>
       </c>
       <c r="N24">
-        <v>1.751332024063657</v>
+        <v>3.5006997095673</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.457425020090795</v>
+        <v>1.237895140053865</v>
       </c>
       <c r="C25">
-        <v>0.1633117475877839</v>
+        <v>0.05515008240587349</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02354681998314234</v>
+        <v>0.07363269855534149</v>
       </c>
       <c r="F25">
-        <v>1.980212749034038</v>
+        <v>3.244801122278346</v>
       </c>
       <c r="G25">
-        <v>0.0008442540672211167</v>
+        <v>0.002591616265748482</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.13365526548143</v>
+        <v>2.05684439559667</v>
       </c>
       <c r="J25">
-        <v>0.09351743203258156</v>
+        <v>0.168295136798756</v>
       </c>
       <c r="K25">
-        <v>1.466332408250054</v>
+        <v>1.031802753232853</v>
       </c>
       <c r="L25">
-        <v>0.2161353257705798</v>
+        <v>0.3292073497161567</v>
       </c>
       <c r="M25">
-        <v>0.3168793002717152</v>
+        <v>0.3296227374771092</v>
       </c>
       <c r="N25">
-        <v>1.823052463934232</v>
+        <v>3.532231328249551</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.189483029958524</v>
+        <v>1.239017703718162</v>
       </c>
       <c r="C2">
-        <v>0.04738906652589492</v>
+        <v>0.1353282970018057</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0736173268394662</v>
+        <v>0.02195061336575321</v>
       </c>
       <c r="F2">
-        <v>3.232318159589937</v>
+        <v>1.849500874431712</v>
       </c>
       <c r="G2">
-        <v>0.002596794289770324</v>
+        <v>0.000852628812533653</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.059841795425797</v>
+        <v>1.100591856518442</v>
       </c>
       <c r="J2">
-        <v>0.1688416664118542</v>
+        <v>0.09638181705237425</v>
       </c>
       <c r="K2">
-        <v>0.9787752588754586</v>
+        <v>1.23909755812852</v>
       </c>
       <c r="L2">
-        <v>0.3249379500940179</v>
+        <v>0.1899087823002148</v>
       </c>
       <c r="M2">
-        <v>0.3203958102452553</v>
+        <v>0.2719209034580068</v>
       </c>
       <c r="N2">
-        <v>3.558174591686011</v>
+        <v>1.882507669388346</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.15796167866759</v>
+        <v>1.09398295898535</v>
       </c>
       <c r="C3">
-        <v>0.04216601487478044</v>
+        <v>0.1168286170652948</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07364045575576039</v>
+        <v>0.02089895173284884</v>
       </c>
       <c r="F3">
-        <v>3.22648453291049</v>
+        <v>1.766483616632613</v>
       </c>
       <c r="G3">
-        <v>0.002600551967295604</v>
+        <v>0.0008585256993858743</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.063353970474147</v>
+        <v>1.081431179114141</v>
       </c>
       <c r="J3">
-        <v>0.1692261346921278</v>
+        <v>0.09835161652958568</v>
       </c>
       <c r="K3">
-        <v>0.9439639254313192</v>
+        <v>1.088312514314509</v>
       </c>
       <c r="L3">
-        <v>0.3223180992656935</v>
+        <v>0.1725439540869758</v>
       </c>
       <c r="M3">
-        <v>0.3144656596694198</v>
+        <v>0.2420887362445718</v>
       </c>
       <c r="N3">
-        <v>3.577458116180772</v>
+        <v>1.926640305743838</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.139243508251411</v>
+        <v>1.006185762662795</v>
       </c>
       <c r="C4">
-        <v>0.0389763259432101</v>
+        <v>0.1056549766129677</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07367131596500087</v>
+        <v>0.02026711921501168</v>
       </c>
       <c r="F4">
-        <v>3.224198904527071</v>
+        <v>1.718013898344736</v>
       </c>
       <c r="G4">
-        <v>0.002602982452954895</v>
+        <v>0.000862260574444223</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.066241062877985</v>
+        <v>1.071143803467123</v>
       </c>
       <c r="J4">
-        <v>0.1694691947591052</v>
+        <v>0.09957662984115245</v>
       </c>
       <c r="K4">
-        <v>0.9231443203630079</v>
+        <v>0.9970667883097519</v>
       </c>
       <c r="L4">
-        <v>0.3208449698894427</v>
+        <v>0.162062281008815</v>
       </c>
       <c r="M4">
-        <v>0.3109842323870922</v>
+        <v>0.2240436576602178</v>
       </c>
       <c r="N4">
-        <v>3.590137767256664</v>
+        <v>1.955539304920961</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.131775976078757</v>
+        <v>0.9706937767380168</v>
       </c>
       <c r="C5">
-        <v>0.03768075663448656</v>
+        <v>0.1011421811517295</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07368809907461138</v>
+        <v>0.02001301126698252</v>
       </c>
       <c r="F5">
-        <v>3.223593717063153</v>
+        <v>1.698858104001857</v>
       </c>
       <c r="G5">
-        <v>0.002604003986001116</v>
+        <v>0.000863811965647554</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.067601368801874</v>
+        <v>1.067305973673292</v>
       </c>
       <c r="J5">
-        <v>0.1695700089675549</v>
+        <v>0.100079942239871</v>
       </c>
       <c r="K5">
-        <v>0.9147997706300828</v>
+        <v>0.9601857110409355</v>
       </c>
       <c r="L5">
-        <v>0.3202788282346987</v>
+        <v>0.157833366861091</v>
       </c>
       <c r="M5">
-        <v>0.3096057833099444</v>
+        <v>0.2167528202614193</v>
       </c>
       <c r="N5">
-        <v>3.59551593496235</v>
+        <v>1.967755927872588</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.130545688036619</v>
+        <v>0.9648168120206435</v>
       </c>
       <c r="C6">
-        <v>0.03746588264284867</v>
+        <v>0.1003951155942957</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07369114054868398</v>
+        <v>0.01997101687855007</v>
       </c>
       <c r="F6">
-        <v>3.223512937464875</v>
+        <v>1.695712355703265</v>
       </c>
       <c r="G6">
-        <v>0.002604175491187844</v>
+        <v>0.000864071368215628</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.067838349468587</v>
+        <v>1.066689626059791</v>
       </c>
       <c r="J6">
-        <v>0.1695868558937317</v>
+        <v>0.1001637707755583</v>
       </c>
       <c r="K6">
-        <v>0.913422600334286</v>
+        <v>0.954078943468204</v>
       </c>
       <c r="L6">
-        <v>0.3201868877748595</v>
+        <v>0.1571336409813355</v>
       </c>
       <c r="M6">
-        <v>0.3093793275243115</v>
+        <v>0.2155458072549514</v>
       </c>
       <c r="N6">
-        <v>3.596421726324493</v>
+        <v>1.969810704038032</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.139142149118811</v>
+        <v>1.005705984574945</v>
       </c>
       <c r="C7">
-        <v>0.03895883633661867</v>
+        <v>0.1055939589509478</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07367152524800513</v>
+        <v>0.02026367874219659</v>
       </c>
       <c r="F7">
-        <v>3.224189421528166</v>
+        <v>1.71775318615633</v>
       </c>
       <c r="G7">
-        <v>0.00260299610379695</v>
+        <v>0.000862281377105554</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.066258664175756</v>
+        <v>1.071090632250979</v>
       </c>
       <c r="J7">
-        <v>0.1694705472192819</v>
+        <v>0.09958340079035555</v>
       </c>
       <c r="K7">
-        <v>0.9230312174097435</v>
+        <v>0.996568216472923</v>
       </c>
       <c r="L7">
-        <v>0.3208371962086503</v>
+        <v>0.1620050802306849</v>
       </c>
       <c r="M7">
-        <v>0.3109654789923439</v>
+        <v>0.2239450844013078</v>
       </c>
       <c r="N7">
-        <v>3.590209444340957</v>
+        <v>1.955702297317352</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.178482636573051</v>
+        <v>1.188730987568931</v>
       </c>
       <c r="C8">
-        <v>0.04558451373763717</v>
+        <v>0.128907403444984</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07362185497687435</v>
+        <v>0.02158503860760952</v>
       </c>
       <c r="F8">
-        <v>3.230037844960904</v>
+        <v>1.820336207276625</v>
       </c>
       <c r="G8">
-        <v>0.002598064413168236</v>
+        <v>0.0008546387933777985</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.060901199097522</v>
+        <v>1.093667980079552</v>
       </c>
       <c r="J8">
-        <v>0.1689727830956187</v>
+        <v>0.09705789993408143</v>
       </c>
       <c r="K8">
-        <v>0.9666572455122093</v>
+        <v>1.186808307137142</v>
       </c>
       <c r="L8">
-        <v>0.3240065705064623</v>
+        <v>0.1838821379449698</v>
       </c>
       <c r="M8">
-        <v>0.318318004231859</v>
+        <v>0.2615747635403309</v>
       </c>
       <c r="N8">
-        <v>3.564649321609096</v>
+        <v>1.897342693705312</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.260667190518063</v>
+        <v>1.559037443238651</v>
       </c>
       <c r="C9">
-        <v>0.05871938903169394</v>
+        <v>0.176390024516067</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07365586808071534</v>
+        <v>0.02429278870012297</v>
       </c>
       <c r="F9">
-        <v>3.251783662762676</v>
+        <v>2.042986608321172</v>
       </c>
       <c r="G9">
-        <v>0.002589366962884475</v>
+        <v>0.0008405241180127953</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.056190347762723</v>
+        <v>1.150495935578824</v>
       </c>
       <c r="J9">
-        <v>0.1680518670339923</v>
+        <v>0.0922192035539986</v>
       </c>
       <c r="K9">
-        <v>1.056609317450153</v>
+        <v>1.57213309950987</v>
       </c>
       <c r="L9">
-        <v>0.3312926063999271</v>
+        <v>0.2283564839392653</v>
       </c>
       <c r="M9">
-        <v>0.3340002212908644</v>
+        <v>0.3378039642862873</v>
       </c>
       <c r="N9">
-        <v>3.521186367328113</v>
+        <v>1.797816958077689</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.324115723942214</v>
+        <v>1.840229954332273</v>
       </c>
       <c r="C10">
-        <v>0.06846366451142671</v>
+        <v>0.2128008497815159</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07376000075233335</v>
+        <v>0.02636324072950202</v>
       </c>
       <c r="F10">
-        <v>3.274020676924039</v>
+        <v>2.222109782683248</v>
       </c>
       <c r="G10">
-        <v>0.002583564294726887</v>
+        <v>0.0008306358894901473</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.056261801238385</v>
+        <v>1.201153425911002</v>
       </c>
       <c r="J10">
-        <v>0.1674084710454435</v>
+        <v>0.08871944089912542</v>
       </c>
       <c r="K10">
-        <v>1.125389498153169</v>
+        <v>1.865220491425504</v>
       </c>
       <c r="L10">
-        <v>0.3372941079723972</v>
+        <v>0.2622056505896069</v>
       </c>
       <c r="M10">
-        <v>0.3462897476069244</v>
+        <v>0.3957184617715228</v>
       </c>
       <c r="N10">
-        <v>3.493313479448403</v>
+        <v>1.73472597990353</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.353645975845325</v>
+        <v>1.970666547113694</v>
       </c>
       <c r="C11">
-        <v>0.07291870012041102</v>
+        <v>0.2298073672953933</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0738243580552318</v>
+        <v>0.02732528223509512</v>
       </c>
       <c r="F11">
-        <v>3.285495692021115</v>
+        <v>2.307566952904835</v>
       </c>
       <c r="G11">
-        <v>0.002581050733931255</v>
+        <v>0.0008262300617252886</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.057061489136359</v>
+        <v>1.226438923948379</v>
       </c>
       <c r="J11">
-        <v>0.1671228870898833</v>
+        <v>0.08713598485253637</v>
       </c>
       <c r="K11">
-        <v>1.157266543000361</v>
+        <v>2.001337557835711</v>
       </c>
       <c r="L11">
-        <v>0.3401642862137209</v>
+        <v>0.2779113082480364</v>
       </c>
       <c r="M11">
-        <v>0.3520468313041931</v>
+        <v>0.4225827224788148</v>
       </c>
       <c r="N11">
-        <v>3.48151470586447</v>
+        <v>1.708432504328826</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.36492406447752</v>
+        <v>2.020470285164208</v>
       </c>
       <c r="C12">
-        <v>0.07460903096180971</v>
+        <v>0.2363212570436986</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07385115380931673</v>
+        <v>0.02769271881602364</v>
       </c>
       <c r="F12">
-        <v>3.290036292144237</v>
+        <v>2.340552795746177</v>
       </c>
       <c r="G12">
-        <v>0.002580116947846428</v>
+        <v>0.0008245738933194622</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.057474610403361</v>
+        <v>1.236364240470849</v>
       </c>
       <c r="J12">
-        <v>0.1670157583185805</v>
+        <v>0.08653732143739834</v>
       </c>
       <c r="K12">
-        <v>1.169422216053107</v>
+        <v>2.053338767750176</v>
       </c>
       <c r="L12">
-        <v>0.3412711982014685</v>
+        <v>0.2839074960524215</v>
       </c>
       <c r="M12">
-        <v>0.3542507607622127</v>
+        <v>0.4328394041938139</v>
       </c>
       <c r="N12">
-        <v>3.477173488966244</v>
+        <v>1.698843404519451</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.362490878478525</v>
+        <v>2.009725107326915</v>
       </c>
       <c r="C13">
-        <v>0.07424483941402116</v>
+        <v>0.234914915061097</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07384527528951956</v>
+        <v>0.02761344151775447</v>
       </c>
       <c r="F13">
-        <v>3.289049711573639</v>
+        <v>2.333419997997623</v>
       </c>
       <c r="G13">
-        <v>0.002580317254358134</v>
+        <v>0.0008249300530702719</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.057380732207577</v>
+        <v>1.234210595883951</v>
       </c>
       <c r="J13">
-        <v>0.1670387853268878</v>
+        <v>0.08666621639759775</v>
       </c>
       <c r="K13">
-        <v>1.166800516705592</v>
+        <v>2.042118130921921</v>
       </c>
       <c r="L13">
-        <v>0.3410319153565382</v>
+        <v>0.282613862558236</v>
       </c>
       <c r="M13">
-        <v>0.3537750460815943</v>
+        <v>0.4306265636952631</v>
       </c>
       <c r="N13">
-        <v>3.478102810471526</v>
+        <v>1.700891871584389</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.354571916369991</v>
+        <v>1.9747554200992</v>
       </c>
       <c r="C14">
-        <v>0.07305769785418192</v>
+        <v>0.2303417261280458</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07382651405725404</v>
+        <v>0.0273554472758093</v>
       </c>
       <c r="F14">
-        <v>3.285865337755581</v>
+        <v>2.310267866165105</v>
       </c>
       <c r="G14">
-        <v>0.002580973549818529</v>
+        <v>0.000826093569181373</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.05709326648379</v>
+        <v>1.22724829693459</v>
       </c>
       <c r="J14">
-        <v>0.167114053215589</v>
+        <v>0.08708671493908593</v>
       </c>
       <c r="K14">
-        <v>1.15826490409907</v>
+        <v>2.005606241541273</v>
       </c>
       <c r="L14">
-        <v>0.3402549515330833</v>
+        <v>0.2784036127138307</v>
       </c>
       <c r="M14">
-        <v>0.3522276725409839</v>
+        <v>0.4234248115086956</v>
       </c>
       <c r="N14">
-        <v>3.481155011197359</v>
+        <v>1.707636103993991</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.349733766966779</v>
+        <v>1.953390391622122</v>
       </c>
       <c r="C15">
-        <v>0.07233097272222722</v>
+        <v>0.2275504579362888</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07381533755115477</v>
+        <v>0.02719783354905836</v>
       </c>
       <c r="F15">
-        <v>3.283940239623504</v>
+        <v>2.296169594141219</v>
       </c>
       <c r="G15">
-        <v>0.002581377897037604</v>
+        <v>0.0008268078152788878</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.056931548681249</v>
+        <v>1.223030173833862</v>
       </c>
       <c r="J15">
-        <v>0.1671602890858477</v>
+        <v>0.087344398464686</v>
       </c>
       <c r="K15">
-        <v>1.153047599700955</v>
+        <v>1.983302853085178</v>
       </c>
       <c r="L15">
-        <v>0.339781645206088</v>
+        <v>0.2758312100914395</v>
       </c>
       <c r="M15">
-        <v>0.3512829642266126</v>
+        <v>0.4190247258971809</v>
       </c>
       <c r="N15">
-        <v>3.483041077523836</v>
+        <v>1.71181569666102</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.322199250893618</v>
+        <v>1.831760325676271</v>
       </c>
       <c r="C16">
-        <v>0.06817297475286921</v>
+        <v>0.2116991968948412</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07375613515813129</v>
+        <v>0.02630079426837106</v>
       </c>
       <c r="F16">
-        <v>3.27329809260371</v>
+        <v>2.216609393389319</v>
       </c>
       <c r="G16">
-        <v>0.002583731091724999</v>
+        <v>0.0008309255908685936</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.056224975401946</v>
+        <v>1.199548391166516</v>
       </c>
       <c r="J16">
-        <v>0.1674272770437648</v>
+        <v>0.08882307303944703</v>
       </c>
       <c r="K16">
-        <v>1.123318092770745</v>
+        <v>1.856385688823906</v>
       </c>
       <c r="L16">
-        <v>0.3371093446918536</v>
+        <v>0.2611858195187153</v>
       </c>
       <c r="M16">
-        <v>0.3459168509884734</v>
+        <v>0.3939740232529871</v>
       </c>
       <c r="N16">
-        <v>3.494102285981057</v>
+        <v>1.736494551315189</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.305478374168956</v>
+        <v>1.757822499593146</v>
       </c>
       <c r="C17">
-        <v>0.06562796185737341</v>
+        <v>0.2020953731003061</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07372415454412717</v>
+        <v>0.0257558147402861</v>
       </c>
       <c r="F17">
-        <v>3.267117480560998</v>
+        <v>2.168856195108447</v>
       </c>
       <c r="G17">
-        <v>0.0025852069350679</v>
+        <v>0.0008334746451446181</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.055987992344569</v>
+        <v>1.185736216178562</v>
       </c>
       <c r="J17">
-        <v>0.1675928801984989</v>
+        <v>0.08973220154720529</v>
       </c>
       <c r="K17">
-        <v>1.105230676557539</v>
+        <v>1.779278612249215</v>
       </c>
       <c r="L17">
-        <v>0.3355057751890627</v>
+        <v>0.252283246804538</v>
       </c>
       <c r="M17">
-        <v>0.3426674932231322</v>
+        <v>0.3787453606671534</v>
       </c>
       <c r="N17">
-        <v>3.501113609032515</v>
+        <v>1.752265419927014</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.295923786618374</v>
+        <v>1.715529578893751</v>
       </c>
       <c r="C18">
-        <v>0.064166232428434</v>
+        <v>0.1966125439709856</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07370736006894774</v>
+        <v>0.0254442413734548</v>
       </c>
       <c r="F18">
-        <v>3.26369051028496</v>
+        <v>2.141760308213136</v>
       </c>
       <c r="G18">
-        <v>0.002586067675486192</v>
+        <v>0.0008349495570985511</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.055923898092416</v>
+        <v>1.178000949389578</v>
       </c>
       <c r="J18">
-        <v>0.167688799356009</v>
+        <v>0.09025593577785962</v>
       </c>
       <c r="K18">
-        <v>1.094882681033425</v>
+        <v>1.735187680355665</v>
       </c>
       <c r="L18">
-        <v>0.3345966341687756</v>
+        <v>0.2471913706504267</v>
       </c>
       <c r="M18">
-        <v>0.3408142277256232</v>
+        <v>0.3700344608414454</v>
       </c>
       <c r="N18">
-        <v>3.505229231640484</v>
+        <v>1.761561554233253</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.292699566347125</v>
+        <v>1.701248753091591</v>
       </c>
       <c r="C19">
-        <v>0.06367167278696684</v>
+        <v>0.1947629060490215</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07370194907698568</v>
+        <v>0.02533906504021211</v>
       </c>
       <c r="F19">
-        <v>3.262552179548038</v>
+        <v>2.132648175952895</v>
       </c>
       <c r="G19">
-        <v>0.00258636114972476</v>
+        <v>0.0008354504730094732</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.055914600140966</v>
+        <v>1.175417027430719</v>
       </c>
       <c r="J19">
-        <v>0.1677213909327531</v>
+        <v>0.09043341358476553</v>
       </c>
       <c r="K19">
-        <v>1.09138854735059</v>
+        <v>1.720302127527646</v>
       </c>
       <c r="L19">
-        <v>0.3342910831492816</v>
+        <v>0.2454721357500347</v>
       </c>
       <c r="M19">
-        <v>0.3401894397791168</v>
+        <v>0.3670931152627901</v>
       </c>
       <c r="N19">
-        <v>3.506636945904916</v>
+        <v>1.764747110222089</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.307251840881577</v>
+        <v>1.765668740092707</v>
       </c>
       <c r="C20">
-        <v>0.06589866533749955</v>
+        <v>0.2031133988445362</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07372739347699131</v>
+        <v>0.0258136321229383</v>
       </c>
       <c r="F20">
-        <v>3.267762175945336</v>
+        <v>2.173900885805949</v>
       </c>
       <c r="G20">
-        <v>0.002585048600643842</v>
+        <v>0.0008332023943515184</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.056005746079549</v>
+        <v>1.187184706854588</v>
       </c>
       <c r="J20">
-        <v>0.1675751823002116</v>
+        <v>0.08963533959174352</v>
       </c>
       <c r="K20">
-        <v>1.107150379197833</v>
+        <v>1.787459599205221</v>
       </c>
       <c r="L20">
-        <v>0.3356751135622744</v>
+        <v>0.2532279439089962</v>
       </c>
       <c r="M20">
-        <v>0.3430117708840825</v>
+        <v>0.3803614227626113</v>
       </c>
       <c r="N20">
-        <v>3.50035866187126</v>
+        <v>1.750563132282423</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.356895314841097</v>
+        <v>1.985015329384623</v>
       </c>
       <c r="C21">
-        <v>0.0734062996243523</v>
+        <v>0.2316828910398812</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07383195901113027</v>
+        <v>0.02743113946403852</v>
       </c>
       <c r="F21">
-        <v>3.286795367809006</v>
+        <v>2.317050792663792</v>
       </c>
       <c r="G21">
-        <v>0.002580780290733581</v>
+        <v>0.000825751493484492</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.057174708883366</v>
+        <v>1.229283551709344</v>
       </c>
       <c r="J21">
-        <v>0.1670919176890138</v>
+        <v>0.08696318066941888</v>
       </c>
       <c r="K21">
-        <v>1.16076972723576</v>
+        <v>2.016317808732111</v>
       </c>
       <c r="L21">
-        <v>0.3404826216443695</v>
+        <v>0.2796389024792632</v>
       </c>
       <c r="M21">
-        <v>0.3526815272416499</v>
+        <v>0.4255377900141895</v>
       </c>
       <c r="N21">
-        <v>3.480255066041281</v>
+        <v>1.705644999166537</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.389897413866549</v>
+        <v>2.130787488429689</v>
       </c>
       <c r="C22">
-        <v>0.07833228498100198</v>
+        <v>0.2507908717431917</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07391442552824046</v>
+        <v>0.02850665785830309</v>
       </c>
       <c r="F22">
-        <v>3.300372697489379</v>
+        <v>2.414279325849577</v>
       </c>
       <c r="G22">
-        <v>0.002578095840687467</v>
+        <v>0.0008209525853928181</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.058581578915934</v>
+        <v>1.258853954824502</v>
       </c>
       <c r="J22">
-        <v>0.1667819940794537</v>
+        <v>0.08522220596477048</v>
       </c>
       <c r="K22">
-        <v>1.19630571499917</v>
+        <v>2.168580959950958</v>
       </c>
       <c r="L22">
-        <v>0.3437413539215868</v>
+        <v>0.2971868144542356</v>
       </c>
       <c r="M22">
-        <v>0.3591402244024735</v>
+        <v>0.4555562867234784</v>
       </c>
       <c r="N22">
-        <v>3.467854876968758</v>
+        <v>1.678442960859087</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.372232691484726</v>
+        <v>2.052748111451422</v>
       </c>
       <c r="C23">
-        <v>0.0757013947908689</v>
+        <v>0.2405490400454227</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07386912477884877</v>
+        <v>0.02793086832958203</v>
       </c>
       <c r="F23">
-        <v>3.293022156636695</v>
+        <v>2.362031648197544</v>
       </c>
       <c r="G23">
-        <v>0.002579518991510209</v>
+        <v>0.000823507759303889</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.057771888888055</v>
+        <v>1.242873595068374</v>
       </c>
       <c r="J23">
-        <v>0.1669468663924745</v>
+        <v>0.08615099669957438</v>
       </c>
       <c r="K23">
-        <v>1.177294448612656</v>
+        <v>2.087049350139324</v>
       </c>
       <c r="L23">
-        <v>0.3419914587920658</v>
+        <v>0.2877933063276856</v>
       </c>
       <c r="M23">
-        <v>0.355680414256021</v>
+        <v>0.4394864792720412</v>
       </c>
       <c r="N23">
-        <v>3.474405477518687</v>
+        <v>1.692756396314721</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.306449874435856</v>
+        <v>1.762120788891821</v>
       </c>
       <c r="C24">
-        <v>0.06577627584165668</v>
+        <v>0.2026530301283032</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07372592419709889</v>
+        <v>0.02578748747339077</v>
       </c>
       <c r="F24">
-        <v>3.267470315575935</v>
+        <v>2.171619069860952</v>
       </c>
       <c r="G24">
-        <v>0.002585120145456176</v>
+        <v>0.0008333254494892862</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.05599749485809</v>
+        <v>1.186529206103316</v>
       </c>
       <c r="J24">
-        <v>0.167583181301671</v>
+        <v>0.08967912754634266</v>
       </c>
       <c r="K24">
-        <v>1.106282323696774</v>
+        <v>1.783760234842106</v>
       </c>
       <c r="L24">
-        <v>0.3355985158927268</v>
+        <v>0.2528007646728696</v>
       </c>
       <c r="M24">
-        <v>0.3428560767413131</v>
+        <v>0.3796306639102767</v>
       </c>
       <c r="N24">
-        <v>3.5006997095673</v>
+        <v>1.751332024063657</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.237895140053865</v>
+        <v>1.457425020090824</v>
       </c>
       <c r="C25">
-        <v>0.05515008240587349</v>
+        <v>0.163311747587457</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07363269855534149</v>
+        <v>0.02354681998315833</v>
       </c>
       <c r="F25">
-        <v>3.244801122278346</v>
+        <v>1.98021274903401</v>
       </c>
       <c r="G25">
-        <v>0.002591616265748482</v>
+        <v>0.0008442540672475382</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.05684439559667</v>
+        <v>1.13365526548143</v>
       </c>
       <c r="J25">
-        <v>0.168295136798756</v>
+        <v>0.09351743203264107</v>
       </c>
       <c r="K25">
-        <v>1.031802753232853</v>
+        <v>1.466332408250025</v>
       </c>
       <c r="L25">
-        <v>0.3292073497161567</v>
+        <v>0.2161353257706367</v>
       </c>
       <c r="M25">
-        <v>0.3296227374771092</v>
+        <v>0.3168793002717294</v>
       </c>
       <c r="N25">
-        <v>3.532231328249551</v>
+        <v>1.823052463934246</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.239017703718162</v>
+        <v>1.556063145989526</v>
       </c>
       <c r="C2">
-        <v>0.1353282970018057</v>
+        <v>0.4397469293645599</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02195061336575321</v>
+        <v>0.3326211240725172</v>
       </c>
       <c r="F2">
-        <v>1.849500874431712</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.000852628812533653</v>
+        <v>0.2055540311873756</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002321523242313051</v>
       </c>
       <c r="I2">
-        <v>1.100591856518442</v>
+        <v>0.005745257841586415</v>
       </c>
       <c r="J2">
-        <v>0.09638181705237425</v>
+        <v>0.1899704111472786</v>
       </c>
       <c r="K2">
-        <v>1.23909755812852</v>
+        <v>0.1485666280636178</v>
       </c>
       <c r="L2">
-        <v>0.1899087823002148</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2719209034580068</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.882507669388346</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.7781739191051429</v>
+      </c>
+      <c r="P2">
+        <v>0.8219632943241777</v>
+      </c>
+      <c r="Q2">
+        <v>0.7837770558016928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.09398295898535</v>
+        <v>1.359209437879713</v>
       </c>
       <c r="C3">
-        <v>0.1168286170652948</v>
+        <v>0.3956945815033635</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02089895173284884</v>
+        <v>0.2990461329309184</v>
       </c>
       <c r="F3">
-        <v>1.766483616632613</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008585256993858743</v>
+        <v>0.1909813778367848</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001320126119947695</v>
       </c>
       <c r="I3">
-        <v>1.081431179114141</v>
+        <v>0.004406695034311792</v>
       </c>
       <c r="J3">
-        <v>0.09835161652958568</v>
+        <v>0.186776352143653</v>
       </c>
       <c r="K3">
-        <v>1.088312514314509</v>
+        <v>0.1518047655926065</v>
       </c>
       <c r="L3">
-        <v>0.1725439540869758</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2420887362445718</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.926640305743838</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6784177227612673</v>
+      </c>
+      <c r="P3">
+        <v>0.8127774586444545</v>
+      </c>
+      <c r="Q3">
+        <v>0.7459506573331112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.006185762662795</v>
+        <v>1.237626660675005</v>
       </c>
       <c r="C4">
-        <v>0.1056549766129677</v>
+        <v>0.368770990552548</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02026711921501168</v>
+        <v>0.2783995279714375</v>
       </c>
       <c r="F4">
-        <v>1.718013898344736</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.000862260574444223</v>
+        <v>0.1822567850849879</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0008287871263632507</v>
       </c>
       <c r="I4">
-        <v>1.071143803467123</v>
+        <v>0.003676689791984433</v>
       </c>
       <c r="J4">
-        <v>0.09957662984115245</v>
+        <v>0.1849907828804973</v>
       </c>
       <c r="K4">
-        <v>0.9970667883097519</v>
+        <v>0.1539766825039237</v>
       </c>
       <c r="L4">
-        <v>0.162062281008815</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2240436576602178</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.955539304920961</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6171112535945724</v>
+      </c>
+      <c r="P4">
+        <v>0.8077675953844121</v>
+      </c>
+      <c r="Q4">
+        <v>0.7235590290146803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9706937767380168</v>
+        <v>1.187044520670469</v>
       </c>
       <c r="C5">
-        <v>0.1011421811517295</v>
+        <v>0.3583668134673985</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02001301126698252</v>
+        <v>0.2699626040897911</v>
       </c>
       <c r="F5">
-        <v>1.698858104001857</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.000863811965647554</v>
+        <v>0.1784699726596486</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0006572369552106938</v>
       </c>
       <c r="I5">
-        <v>1.067305973673292</v>
+        <v>0.003454821628192661</v>
       </c>
       <c r="J5">
-        <v>0.100079942239871</v>
+        <v>0.1841578489813926</v>
       </c>
       <c r="K5">
-        <v>0.9601857110409355</v>
+        <v>0.1547273898146937</v>
       </c>
       <c r="L5">
-        <v>0.157833366861091</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2167528202614193</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.967755927872588</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5921117582137043</v>
+      </c>
+      <c r="P5">
+        <v>0.8062940509530634</v>
+      </c>
+      <c r="Q5">
+        <v>0.7137211104040944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9648168120206435</v>
+        <v>1.177585220915489</v>
       </c>
       <c r="C6">
-        <v>0.1003951155942957</v>
+        <v>0.3573025478479366</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01997101687855007</v>
+        <v>0.2685453493116157</v>
       </c>
       <c r="F6">
-        <v>1.695712355703265</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.000864071368215628</v>
+        <v>0.1774976455972705</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0006299263149383005</v>
       </c>
       <c r="I6">
-        <v>1.066689626059791</v>
+        <v>0.003492806839823004</v>
       </c>
       <c r="J6">
-        <v>0.1001637707755583</v>
+        <v>0.1838414693290602</v>
       </c>
       <c r="K6">
-        <v>0.954078943468204</v>
+        <v>0.154636531963515</v>
       </c>
       <c r="L6">
-        <v>0.1571336409813355</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2155458072549514</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.969810704038032</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5879609483266535</v>
+      </c>
+      <c r="P6">
+        <v>0.8065673247430567</v>
+      </c>
+      <c r="Q6">
+        <v>0.7109859693070888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.005705984574945</v>
+        <v>1.234069453592468</v>
       </c>
       <c r="C7">
-        <v>0.1055939589509478</v>
+        <v>0.3704430299188175</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02026367874219659</v>
+        <v>0.2782436965240009</v>
       </c>
       <c r="F7">
-        <v>1.71775318615633</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.000862281377105554</v>
+        <v>0.181257967623992</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0008247035016824</v>
       </c>
       <c r="I7">
-        <v>1.071090632250979</v>
+        <v>0.003860636597053713</v>
       </c>
       <c r="J7">
-        <v>0.09958340079035555</v>
+        <v>0.1844864263167736</v>
       </c>
       <c r="K7">
-        <v>0.996568216472923</v>
+        <v>0.1533914398612151</v>
       </c>
       <c r="L7">
-        <v>0.1620050802306849</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2239450844013078</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.955702297317352</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6167780860904415</v>
+      </c>
+      <c r="P7">
+        <v>0.8091502396773436</v>
+      </c>
+      <c r="Q7">
+        <v>0.7203837823149399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.188730987568931</v>
+        <v>1.484493438901211</v>
       </c>
       <c r="C8">
-        <v>0.128907403444984</v>
+        <v>0.4269539369905999</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02158503860760952</v>
+        <v>0.3209959583794202</v>
       </c>
       <c r="F8">
-        <v>1.820336207276625</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008546387933777985</v>
+        <v>0.1992242983924584</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001946272782204939</v>
       </c>
       <c r="I8">
-        <v>1.093667980079552</v>
+        <v>0.005488112436814241</v>
       </c>
       <c r="J8">
-        <v>0.09705789993408143</v>
+        <v>0.1881811016207706</v>
       </c>
       <c r="K8">
-        <v>1.186808307137142</v>
+        <v>0.1488618723152531</v>
       </c>
       <c r="L8">
-        <v>0.1838821379449698</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2615747635403309</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.897342693705312</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7437911320769643</v>
+      </c>
+      <c r="P8">
+        <v>0.8205794383485099</v>
+      </c>
+      <c r="Q8">
+        <v>0.7665276809193813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.559037443238651</v>
+        <v>1.975122312865778</v>
       </c>
       <c r="C9">
-        <v>0.176390024516067</v>
+        <v>0.5356437712208049</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02429278870012297</v>
+        <v>0.4047786778999836</v>
       </c>
       <c r="F9">
-        <v>2.042986608321172</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0008405241180127953</v>
+        <v>0.2381204427762071</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.00522114401225493</v>
       </c>
       <c r="I9">
-        <v>1.150495935578824</v>
+        <v>0.009202536377591386</v>
       </c>
       <c r="J9">
-        <v>0.0922192035539986</v>
+        <v>0.1977815355568993</v>
       </c>
       <c r="K9">
-        <v>1.57213309950987</v>
+        <v>0.1425736254429051</v>
       </c>
       <c r="L9">
-        <v>0.2283564839392653</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3378039642862873</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.797816958077689</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.9926098262921528</v>
+      </c>
+      <c r="P9">
+        <v>0.8456050303556282</v>
+      </c>
+      <c r="Q9">
+        <v>0.8696640260803292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.840229954332273</v>
+        <v>2.332242183165761</v>
       </c>
       <c r="C10">
-        <v>0.2128008497815159</v>
+        <v>0.6161933790348826</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02636324072950202</v>
+        <v>0.4371131340945524</v>
       </c>
       <c r="F10">
-        <v>2.222109782683248</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0008306358894901473</v>
+        <v>0.2628625549515107</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00823912793990722</v>
       </c>
       <c r="I10">
-        <v>1.201153425911002</v>
+        <v>0.01256096021386366</v>
       </c>
       <c r="J10">
-        <v>0.08871944089912542</v>
+        <v>0.2031870137020775</v>
       </c>
       <c r="K10">
-        <v>1.865220491425504</v>
+        <v>0.1368524369532427</v>
       </c>
       <c r="L10">
-        <v>0.2622056505896069</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3957184617715228</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.73472597990353</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.139182062796962</v>
+      </c>
+      <c r="P10">
+        <v>0.8766541837560027</v>
+      </c>
+      <c r="Q10">
+        <v>0.9338220458911337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.970666547113694</v>
+        <v>2.502868126700605</v>
       </c>
       <c r="C11">
-        <v>0.2298073672953933</v>
+        <v>0.6458591843147019</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02732528223509512</v>
+        <v>0.2412378800664357</v>
       </c>
       <c r="F11">
-        <v>2.307566952904835</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0008262300617252886</v>
+        <v>0.2321859895301728</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02562360773012884</v>
       </c>
       <c r="I11">
-        <v>1.226438923948379</v>
+        <v>0.01399072873807139</v>
       </c>
       <c r="J11">
-        <v>0.08713598485253637</v>
+        <v>0.184543758092012</v>
       </c>
       <c r="K11">
-        <v>2.001337557835711</v>
+        <v>0.118407256875253</v>
       </c>
       <c r="L11">
-        <v>0.2779113082480364</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4225827224788148</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.708432504328826</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.9084731998288902</v>
+      </c>
+      <c r="P11">
+        <v>0.973509656990359</v>
+      </c>
+      <c r="Q11">
+        <v>0.8298885422682503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.020470285164208</v>
+        <v>2.577178593111853</v>
       </c>
       <c r="C12">
-        <v>0.2363212570436986</v>
+        <v>0.6509160447951103</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02769271881602364</v>
+        <v>0.1281089378407003</v>
       </c>
       <c r="F12">
-        <v>2.340552795746177</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0008245738933194622</v>
+        <v>0.2038870739425391</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06328843822228691</v>
       </c>
       <c r="I12">
-        <v>1.236364240470849</v>
+        <v>0.01419166028191743</v>
       </c>
       <c r="J12">
-        <v>0.08653732143739834</v>
+        <v>0.168868227437855</v>
       </c>
       <c r="K12">
-        <v>2.053338767750176</v>
+        <v>0.1059799841254243</v>
       </c>
       <c r="L12">
-        <v>0.2839074960524215</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4328394041938139</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.698843404519451</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7073916888906524</v>
+      </c>
+      <c r="P12">
+        <v>1.05397475511333</v>
+      </c>
+      <c r="Q12">
+        <v>0.7371158710240309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.009725107326915</v>
+        <v>2.576498898462944</v>
       </c>
       <c r="C13">
-        <v>0.234914915061097</v>
+        <v>0.6401849059602682</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02761344151775447</v>
+        <v>0.07111272236313226</v>
       </c>
       <c r="F13">
-        <v>2.333419997997623</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0008249300530702719</v>
+        <v>0.1742642871244229</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1180378355812763</v>
       </c>
       <c r="I13">
-        <v>1.234210595883951</v>
+        <v>0.0137308838618786</v>
       </c>
       <c r="J13">
-        <v>0.08666621639759775</v>
+        <v>0.1537491375486297</v>
       </c>
       <c r="K13">
-        <v>2.042118130921921</v>
+        <v>0.09642752733914151</v>
       </c>
       <c r="L13">
-        <v>0.282613862558236</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4306265636952631</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.700891871584389</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5184500855595928</v>
+      </c>
+      <c r="P13">
+        <v>1.12728329246282</v>
+      </c>
+      <c r="Q13">
+        <v>0.6426308128557423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.9747554200992</v>
+        <v>2.541111188421553</v>
       </c>
       <c r="C14">
-        <v>0.2303417261280458</v>
+        <v>0.6261565546556085</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0273554472758093</v>
+        <v>0.06412506375624893</v>
       </c>
       <c r="F14">
-        <v>2.310267866165105</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.000826093569181373</v>
+        <v>0.1530588692338526</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1667272265786579</v>
       </c>
       <c r="I14">
-        <v>1.22724829693459</v>
+        <v>0.013190573110065</v>
       </c>
       <c r="J14">
-        <v>0.08708671493908593</v>
+        <v>0.1434375319841124</v>
       </c>
       <c r="K14">
-        <v>2.005606241541273</v>
+        <v>0.09109290701556461</v>
       </c>
       <c r="L14">
-        <v>0.2784036127138307</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4234248115086956</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.707636103993991</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3960804681408021</v>
+      </c>
+      <c r="P14">
+        <v>1.176171906602349</v>
+      </c>
+      <c r="Q14">
+        <v>0.5760326399920217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.953390391622122</v>
+        <v>2.515098234041545</v>
       </c>
       <c r="C15">
-        <v>0.2275504579362888</v>
+        <v>0.6201351969364737</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02719783354905836</v>
+        <v>0.06667705957448966</v>
       </c>
       <c r="F15">
-        <v>2.296169594141219</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0008268078152788878</v>
+        <v>0.1471955148723652</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1790026499310784</v>
       </c>
       <c r="I15">
-        <v>1.223030173833862</v>
+        <v>0.01300666311012222</v>
       </c>
       <c r="J15">
-        <v>0.087344398464686</v>
+        <v>0.1408546470975196</v>
       </c>
       <c r="K15">
-        <v>1.983302853085178</v>
+        <v>0.09014454857953602</v>
       </c>
       <c r="L15">
-        <v>0.2758312100914395</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4190247258971809</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.71181569666102</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3660033450839606</v>
+      </c>
+      <c r="P15">
+        <v>1.186176347571262</v>
+      </c>
+      <c r="Q15">
+        <v>0.5581649106615885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.831760325676271</v>
+        <v>2.359228135606031</v>
       </c>
       <c r="C16">
-        <v>0.2116991968948412</v>
+        <v>0.5888712370883411</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.02630079426837106</v>
+        <v>0.0658040276680758</v>
       </c>
       <c r="F16">
-        <v>2.216609393389319</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0008309255908685936</v>
+        <v>0.1423037533139677</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1652818137263949</v>
       </c>
       <c r="I16">
-        <v>1.199548391166516</v>
+        <v>0.01172992382336613</v>
       </c>
       <c r="J16">
-        <v>0.08882307303944703</v>
+        <v>0.1413085928298159</v>
       </c>
       <c r="K16">
-        <v>1.856385688823906</v>
+        <v>0.09399863454852309</v>
       </c>
       <c r="L16">
-        <v>0.2611858195187153</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3939740232529871</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.736494551315189</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3473596118219433</v>
+      </c>
+      <c r="P16">
+        <v>1.154493418050421</v>
+      </c>
+      <c r="Q16">
+        <v>0.548583923266321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.757822499593146</v>
+        <v>2.25858741105651</v>
       </c>
       <c r="C17">
-        <v>0.2020953731003061</v>
+        <v>0.5724453826706224</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0257558147402861</v>
+        <v>0.06351526541394359</v>
       </c>
       <c r="F17">
-        <v>2.168856195108447</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0008334746451446181</v>
+        <v>0.1496449650767104</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1270686801087919</v>
       </c>
       <c r="I17">
-        <v>1.185736216178562</v>
+        <v>0.01106601107067728</v>
       </c>
       <c r="J17">
-        <v>0.08973220154720529</v>
+        <v>0.147099028047684</v>
       </c>
       <c r="K17">
-        <v>1.779278612249215</v>
+        <v>0.09973257511853006</v>
       </c>
       <c r="L17">
-        <v>0.252283246804538</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3787453606671534</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.752265419927014</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3948532589227298</v>
+      </c>
+      <c r="P17">
+        <v>1.104554597626375</v>
+      </c>
+      <c r="Q17">
+        <v>0.576175351126949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.715529578893751</v>
+        <v>2.196773267268554</v>
       </c>
       <c r="C18">
-        <v>0.1966125439709856</v>
+        <v>0.5653272527946456</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0254442413734548</v>
+        <v>0.08806003507721982</v>
       </c>
       <c r="F18">
-        <v>2.141760308213136</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0008349495570985511</v>
+        <v>0.1697040877911817</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0744141652201975</v>
       </c>
       <c r="I18">
-        <v>1.178000949389578</v>
+        <v>0.01061822935162393</v>
       </c>
       <c r="J18">
-        <v>0.09025593577785962</v>
+        <v>0.1587250783172536</v>
       </c>
       <c r="K18">
-        <v>1.735187680355665</v>
+        <v>0.1085656098865169</v>
       </c>
       <c r="L18">
-        <v>0.2471913706504267</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3700344608414454</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.761561554233253</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5173173482029298</v>
+      </c>
+      <c r="P18">
+        <v>1.034626673444095</v>
+      </c>
+      <c r="Q18">
+        <v>0.6429976036251901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.701248753091591</v>
+        <v>2.16520939113235</v>
       </c>
       <c r="C19">
-        <v>0.1947629060490215</v>
+        <v>0.5699057386157449</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02533906504021211</v>
+        <v>0.1749343500217471</v>
       </c>
       <c r="F19">
-        <v>2.132648175952895</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0008354504730094732</v>
+        <v>0.1984321454194671</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03012015095017517</v>
       </c>
       <c r="I19">
-        <v>1.175417027430719</v>
+        <v>0.0108683310290365</v>
       </c>
       <c r="J19">
-        <v>0.09043341358476553</v>
+        <v>0.1739544509239579</v>
       </c>
       <c r="K19">
-        <v>1.720302127527646</v>
+        <v>0.1193717988566192</v>
       </c>
       <c r="L19">
-        <v>0.2454721357500347</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3670931152627901</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.764747110222089</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.7113289403581646</v>
+      </c>
+      <c r="P19">
+        <v>0.961841167170931</v>
+      </c>
+      <c r="Q19">
+        <v>0.7357898192696979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.765668740092707</v>
+        <v>2.229534058799459</v>
       </c>
       <c r="C20">
-        <v>0.2031133988445362</v>
+        <v>0.6007872484467498</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0258136321229383</v>
+        <v>0.4272469503496481</v>
       </c>
       <c r="F20">
-        <v>2.173900885805949</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0008332023943515184</v>
+        <v>0.2531108145438878</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.007351287878419654</v>
       </c>
       <c r="I20">
-        <v>1.187184706854588</v>
+        <v>0.01226082787955729</v>
       </c>
       <c r="J20">
-        <v>0.08963533959174352</v>
+        <v>0.200080315419676</v>
       </c>
       <c r="K20">
-        <v>1.787459599205221</v>
+        <v>0.1364151249092718</v>
       </c>
       <c r="L20">
-        <v>0.2532279439089962</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3803614227626113</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.750563132282423</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.099204404809598</v>
+      </c>
+      <c r="P20">
+        <v>0.8734320042213568</v>
+      </c>
+      <c r="Q20">
+        <v>0.9065426720142966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.985015329384623</v>
+        <v>2.502070121337681</v>
       </c>
       <c r="C21">
-        <v>0.2316828910398812</v>
+        <v>0.6635877996679937</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.02743113946403852</v>
+        <v>0.4975185259034021</v>
       </c>
       <c r="F21">
-        <v>2.317050792663792</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.000825751493484492</v>
+        <v>0.2807634514923052</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01023235762058974</v>
       </c>
       <c r="I21">
-        <v>1.229283551709344</v>
+        <v>0.01503582877573351</v>
       </c>
       <c r="J21">
-        <v>0.08696318066941888</v>
+        <v>0.2086678218930302</v>
       </c>
       <c r="K21">
-        <v>2.016317808732111</v>
+        <v>0.1356731051270756</v>
       </c>
       <c r="L21">
-        <v>0.2796389024792632</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4255377900141895</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.705644999166537</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.268009608393925</v>
+      </c>
+      <c r="P21">
+        <v>0.8845718462764296</v>
+      </c>
+      <c r="Q21">
+        <v>0.9834415150513109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.130787488429689</v>
+        <v>2.684216495046996</v>
       </c>
       <c r="C22">
-        <v>0.2507908717431917</v>
+        <v>0.701832321183673</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.02850665785830309</v>
+        <v>0.5286291357029924</v>
       </c>
       <c r="F22">
-        <v>2.414279325849577</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0008209525853928181</v>
+        <v>0.2979729663217512</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01220821786612983</v>
       </c>
       <c r="I22">
-        <v>1.258853954824502</v>
+        <v>0.01670377975097459</v>
       </c>
       <c r="J22">
-        <v>0.08522220596477048</v>
+        <v>0.2139027593213427</v>
       </c>
       <c r="K22">
-        <v>2.168580959950958</v>
+        <v>0.1352153089302277</v>
       </c>
       <c r="L22">
-        <v>0.2971868144542356</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4555562867234784</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.678442960859087</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.359962081079445</v>
+      </c>
+      <c r="P22">
+        <v>0.8948138735953535</v>
+      </c>
+      <c r="Q22">
+        <v>1.031071666190797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.052748111451422</v>
+        <v>2.590560223325724</v>
       </c>
       <c r="C23">
-        <v>0.2405490400454227</v>
+        <v>0.6791646821057498</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02793086832958203</v>
+        <v>0.5120589832323788</v>
       </c>
       <c r="F23">
-        <v>2.362031648197544</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.000823507759303889</v>
+        <v>0.289872042206099</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01114142179681753</v>
       </c>
       <c r="I23">
-        <v>1.242873595068374</v>
+        <v>0.01555643224385239</v>
       </c>
       <c r="J23">
-        <v>0.08615099669957438</v>
+        <v>0.2116601617623672</v>
       </c>
       <c r="K23">
-        <v>2.087049350139324</v>
+        <v>0.1361134700097537</v>
       </c>
       <c r="L23">
-        <v>0.2877933063276856</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4394864792720412</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.692756396314721</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.31087280721043</v>
+      </c>
+      <c r="P23">
+        <v>0.887417431292377</v>
+      </c>
+      <c r="Q23">
+        <v>1.009104165756241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.762120788891821</v>
+        <v>2.229239570506422</v>
       </c>
       <c r="C24">
-        <v>0.2026530301283032</v>
+        <v>0.5972923417056961</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02578748747339077</v>
+        <v>0.4493989552136384</v>
       </c>
       <c r="F24">
-        <v>2.171619069860952</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0008333254494892862</v>
+        <v>0.2581993939860538</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.007464509200532876</v>
       </c>
       <c r="I24">
-        <v>1.186529206103316</v>
+        <v>0.01187092998164907</v>
       </c>
       <c r="J24">
-        <v>0.08967912754634266</v>
+        <v>0.2027404649272668</v>
       </c>
       <c r="K24">
-        <v>1.783760234842106</v>
+        <v>0.1389394805001558</v>
       </c>
       <c r="L24">
-        <v>0.2528007646728696</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3796306639102767</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.751332024063657</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.125211443610283</v>
+      </c>
+      <c r="P24">
+        <v>0.8638152642147645</v>
+      </c>
+      <c r="Q24">
+        <v>0.9228996784636934</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.457425020090824</v>
+        <v>1.837689580081104</v>
       </c>
       <c r="C25">
-        <v>0.163311747587457</v>
+        <v>0.5094526215309259</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02354681998315833</v>
+        <v>0.3820388583130452</v>
       </c>
       <c r="F25">
-        <v>1.98021274903401</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0008442540672475382</v>
+        <v>0.2256424856690202</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.004201574766279692</v>
       </c>
       <c r="I25">
-        <v>1.13365526548143</v>
+        <v>0.008435079154873293</v>
       </c>
       <c r="J25">
-        <v>0.09351743203264107</v>
+        <v>0.1941297586222817</v>
       </c>
       <c r="K25">
-        <v>1.466332408250025</v>
+        <v>0.1430440084417022</v>
       </c>
       <c r="L25">
-        <v>0.2161353257706367</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3168793002717294</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.823052463934246</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.9252974019205098</v>
+      </c>
+      <c r="P25">
+        <v>0.8409648686648552</v>
+      </c>
+      <c r="Q25">
+        <v>0.8354137212335644</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.556063145989526</v>
+        <v>1.527386998968495</v>
       </c>
       <c r="C2">
-        <v>0.4397469293645599</v>
+        <v>0.4495997869531152</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3326211240725172</v>
+        <v>0.3303084982376276</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2055540311873756</v>
+        <v>0.1833816064206175</v>
       </c>
       <c r="H2">
-        <v>0.002321523242313051</v>
+        <v>0.002195020349549659</v>
       </c>
       <c r="I2">
-        <v>0.005745257841586415</v>
+        <v>0.005570066749004177</v>
       </c>
       <c r="J2">
-        <v>0.1899704111472786</v>
+        <v>0.2298938756416149</v>
       </c>
       <c r="K2">
-        <v>0.1485666280636178</v>
+        <v>0.1439270345621306</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1032676036080193</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02197952330513964</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7781739191051429</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8219632943241777</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.7837770558016928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7779514904915814</v>
+      </c>
+      <c r="R2">
+        <v>0.8377413433194647</v>
+      </c>
+      <c r="S2">
+        <v>0.7642937996391623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.359209437879713</v>
+        <v>1.339450740235208</v>
       </c>
       <c r="C3">
-        <v>0.3956945815033635</v>
+        <v>0.3999352251485959</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2990461329309184</v>
+        <v>0.2972310688241109</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.1909813778367848</v>
+        <v>0.170576096734024</v>
       </c>
       <c r="H3">
-        <v>0.001320126119947695</v>
+        <v>0.00124957769830758</v>
       </c>
       <c r="I3">
-        <v>0.004406695034311792</v>
+        <v>0.004396113104630839</v>
       </c>
       <c r="J3">
-        <v>0.186776352143653</v>
+        <v>0.2265859163980011</v>
       </c>
       <c r="K3">
-        <v>0.1518047655926065</v>
+        <v>0.1478637168195096</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1080027599824032</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02146364891046471</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6784177227612673</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8127774586444545</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.7459506573331112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6783478223678969</v>
+      </c>
+      <c r="R3">
+        <v>0.8229399947591105</v>
+      </c>
+      <c r="S3">
+        <v>0.7329445130146865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.237626660675005</v>
+        <v>1.223149263589761</v>
       </c>
       <c r="C4">
-        <v>0.368770990552548</v>
+        <v>0.369688677492519</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2783995279714375</v>
+        <v>0.2768932156226995</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.1822567850849879</v>
+        <v>0.16290968457497</v>
       </c>
       <c r="H4">
-        <v>0.0008287871263632507</v>
+        <v>0.0007853110047133516</v>
       </c>
       <c r="I4">
-        <v>0.003676689791984433</v>
+        <v>0.003755154966887719</v>
       </c>
       <c r="J4">
-        <v>0.1849907828804973</v>
+        <v>0.2246080276298201</v>
       </c>
       <c r="K4">
-        <v>0.1539766825039237</v>
+        <v>0.1504133666244147</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1111018652631977</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02155839070882504</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6171112535945724</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8077675953844121</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.7235590290146803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.617120796189468</v>
+      </c>
+      <c r="R4">
+        <v>0.81457638517346</v>
+      </c>
+      <c r="S4">
+        <v>0.714262906018007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.187044520670469</v>
+        <v>1.174677026795905</v>
       </c>
       <c r="C5">
-        <v>0.3583668134673985</v>
+        <v>0.3579723932919308</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2699626040897911</v>
+        <v>0.268583518169784</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.1784699726596486</v>
+        <v>0.1595544479254372</v>
       </c>
       <c r="H5">
-        <v>0.0006572369552106938</v>
+        <v>0.0006231205249436211</v>
       </c>
       <c r="I5">
-        <v>0.003454821628192661</v>
+        <v>0.003579759859958287</v>
       </c>
       <c r="J5">
-        <v>0.1841578489813926</v>
+        <v>0.2236617869568391</v>
       </c>
       <c r="K5">
-        <v>0.1547273898146937</v>
+        <v>0.1513116968668431</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1123064834961607</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02167342830673569</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5921117582137043</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8062940509530634</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.7137211104040944</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5921506783249697</v>
+      </c>
+      <c r="R5">
+        <v>0.8117693401656467</v>
+      </c>
+      <c r="S5">
+        <v>0.7058831239149157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.177585220915489</v>
+        <v>1.165571953473318</v>
       </c>
       <c r="C6">
-        <v>0.3573025478479366</v>
+        <v>0.3567061249962649</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2685453493116157</v>
+        <v>0.2671880090341787</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.1774976455972705</v>
+        <v>0.1586625669987498</v>
       </c>
       <c r="H6">
-        <v>0.0006299263149383005</v>
+        <v>0.0005972952420976174</v>
       </c>
       <c r="I6">
-        <v>0.003492806839823004</v>
+        <v>0.003642646954801876</v>
       </c>
       <c r="J6">
-        <v>0.1838414693290602</v>
+        <v>0.2233184853103012</v>
       </c>
       <c r="K6">
-        <v>0.154636531963515</v>
+        <v>0.1512523782969257</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1123801423599531</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02166603396955491</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5879609483266535</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8065673247430567</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.7109859693070888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5880047172208975</v>
+      </c>
+      <c r="R6">
+        <v>0.811834111364675</v>
+      </c>
+      <c r="S6">
+        <v>0.7034005082744983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.234069453592468</v>
+        <v>1.218686316126735</v>
       </c>
       <c r="C7">
-        <v>0.3704430299188175</v>
+        <v>0.370777313360577</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2782436965240009</v>
+        <v>0.2768329123419164</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.181257967623992</v>
+        <v>0.1641041569895449</v>
       </c>
       <c r="H7">
-        <v>0.0008247035016824</v>
+        <v>0.0007801339226731763</v>
       </c>
       <c r="I7">
-        <v>0.003860636597053713</v>
+        <v>0.003979949439844255</v>
       </c>
       <c r="J7">
-        <v>0.1844864263167736</v>
+        <v>0.2207891452393298</v>
       </c>
       <c r="K7">
-        <v>0.1533914398612151</v>
+        <v>0.1496541063553298</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.11065901571477</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02142372617058097</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6167780860904415</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8091502396773436</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.7203837823149399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6164932124828937</v>
+      </c>
+      <c r="R7">
+        <v>0.8165376740266979</v>
+      </c>
+      <c r="S7">
+        <v>0.709148379948445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.484493438901211</v>
+        <v>1.45577319536531</v>
       </c>
       <c r="C8">
-        <v>0.4269539369905999</v>
+        <v>0.432871274613035</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3209959583794202</v>
+        <v>0.3191717519909432</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.1992242983924584</v>
+        <v>0.1849549130283989</v>
       </c>
       <c r="H8">
-        <v>0.001946272782204939</v>
+        <v>0.001834572653865441</v>
       </c>
       <c r="I8">
-        <v>0.005488112436814241</v>
+        <v>0.005411651246441274</v>
       </c>
       <c r="J8">
-        <v>0.1881811016207706</v>
+        <v>0.2173766958894134</v>
       </c>
       <c r="K8">
-        <v>0.1488618723152531</v>
+        <v>0.1438700680131291</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1041338509581582</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02137283183145211</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7437911320769643</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8205794383485099</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.7665276809193813</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7426333812602195</v>
+      </c>
+      <c r="R8">
+        <v>0.8364103590701433</v>
+      </c>
+      <c r="S8">
+        <v>0.7427888989642071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.975122312865778</v>
+        <v>1.922063290379384</v>
       </c>
       <c r="C9">
-        <v>0.5356437712208049</v>
+        <v>0.5555961775941398</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4047786778999836</v>
+        <v>0.4018235659282965</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.2381204427762071</v>
+        <v>0.2213076389793116</v>
       </c>
       <c r="H9">
-        <v>0.00522114401225493</v>
+        <v>0.004917430276242918</v>
       </c>
       <c r="I9">
-        <v>0.009202536377591386</v>
+        <v>0.008575517284744372</v>
       </c>
       <c r="J9">
-        <v>0.1977815355568993</v>
+        <v>0.223614217085327</v>
       </c>
       <c r="K9">
-        <v>0.1425736254429051</v>
+        <v>0.1353590799502733</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09380427870399188</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02494960645202937</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9926098262921528</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8456050303556282</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.8696640260803292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.9906758315036086</v>
+      </c>
+      <c r="R9">
+        <v>0.8765901270414531</v>
+      </c>
+      <c r="S9">
+        <v>0.8263226659358054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.332242183165761</v>
+        <v>2.255407000367313</v>
       </c>
       <c r="C10">
-        <v>0.6161933790348826</v>
+        <v>0.6427708919885049</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4371131340945524</v>
+        <v>0.4339424071709175</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.2628625549515107</v>
+        <v>0.2575572602813239</v>
       </c>
       <c r="H10">
-        <v>0.00823912793990722</v>
+        <v>0.007739892453929365</v>
       </c>
       <c r="I10">
-        <v>0.01256096021386366</v>
+        <v>0.01144037624059191</v>
       </c>
       <c r="J10">
-        <v>0.2031870137020775</v>
+        <v>0.2088477217961255</v>
       </c>
       <c r="K10">
-        <v>0.1368524369532427</v>
+        <v>0.1270493034665385</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08617076027430315</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02842040395706569</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.139182062796962</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8766541837560027</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.9338220458911337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.13486217639641</v>
+      </c>
+      <c r="R10">
+        <v>0.9229925093151365</v>
+      </c>
+      <c r="S10">
+        <v>0.8647262276690952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.502868126700605</v>
+        <v>2.412652414898048</v>
       </c>
       <c r="C11">
-        <v>0.6458591843147019</v>
+        <v>0.6637794637999548</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2412378800664357</v>
+        <v>0.2386575047202442</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2321859895301728</v>
+        <v>0.2563571550203605</v>
       </c>
       <c r="H11">
-        <v>0.02562360773012884</v>
+        <v>0.02510500342640754</v>
       </c>
       <c r="I11">
-        <v>0.01399072873807139</v>
+        <v>0.01274029557014966</v>
       </c>
       <c r="J11">
-        <v>0.184543758092012</v>
+        <v>0.1629365983712034</v>
       </c>
       <c r="K11">
-        <v>0.118407256875253</v>
+        <v>0.1091400156614295</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07838120188363185</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02387592216727974</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9084731998288902</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.973509656990359</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.8298885422682503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.9013115348212608</v>
+      </c>
+      <c r="R11">
+        <v>1.034384693797364</v>
+      </c>
+      <c r="S11">
+        <v>0.7454657636924367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.577178593111853</v>
+        <v>2.484283376829637</v>
       </c>
       <c r="C12">
-        <v>0.6509160447951103</v>
+        <v>0.6622123567710787</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1281089378407003</v>
+        <v>0.1252651929189668</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.2038870739425391</v>
+        <v>0.2407865649781868</v>
       </c>
       <c r="H12">
-        <v>0.06328843822228691</v>
+        <v>0.06279372368008751</v>
       </c>
       <c r="I12">
-        <v>0.01419166028191743</v>
+        <v>0.0128739026519531</v>
       </c>
       <c r="J12">
-        <v>0.168868227437855</v>
+        <v>0.1420387590327898</v>
       </c>
       <c r="K12">
-        <v>0.1059799841254243</v>
+        <v>0.09836893565015004</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07449848844804041</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02007530665797574</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7073916888906524</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1.05397475511333</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.7371158710240309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6998246703159552</v>
+      </c>
+      <c r="R12">
+        <v>1.121469965010448</v>
+      </c>
+      <c r="S12">
+        <v>0.6532083816653795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.576498898462944</v>
+        <v>2.492056762325319</v>
       </c>
       <c r="C13">
-        <v>0.6401849059602682</v>
+        <v>0.6478224586491876</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07111272236313226</v>
+        <v>0.06770480916142585</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.1742642871244229</v>
+        <v>0.2071216208157054</v>
       </c>
       <c r="H13">
-        <v>0.1180378355812763</v>
+        <v>0.1176019417472531</v>
       </c>
       <c r="I13">
-        <v>0.0137308838618786</v>
+        <v>0.0124873545127997</v>
       </c>
       <c r="J13">
-        <v>0.1537491375486297</v>
+        <v>0.1362460314736715</v>
       </c>
       <c r="K13">
-        <v>0.09642752733914151</v>
+        <v>0.09145082957844863</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0725319972412648</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.01656391039025706</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5184500855595928</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.12728329246282</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.6426308128557423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5123941695630094</v>
+      </c>
+      <c r="R13">
+        <v>1.192423640058792</v>
+      </c>
+      <c r="S13">
+        <v>0.5738097059213629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.541111188421553</v>
+        <v>2.467561700961937</v>
       </c>
       <c r="C14">
-        <v>0.6261565546556085</v>
+        <v>0.6325056685452353</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06412506375624893</v>
+        <v>0.060450446621795</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1530588692338526</v>
+        <v>0.1769328335261164</v>
       </c>
       <c r="H14">
-        <v>0.1667272265786579</v>
+        <v>0.166342605104191</v>
       </c>
       <c r="I14">
-        <v>0.013190573110065</v>
+        <v>0.01207453224313859</v>
       </c>
       <c r="J14">
-        <v>0.1434375319841124</v>
+        <v>0.1372027318909019</v>
       </c>
       <c r="K14">
-        <v>0.09109290701556461</v>
+        <v>0.08816009738323594</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07181772313585633</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.01430525571488772</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3960804681408021</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.176171906602349</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.5760326399920217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3916092151275663</v>
+      </c>
+      <c r="R14">
+        <v>1.235118369468907</v>
+      </c>
+      <c r="S14">
+        <v>0.5228698983148234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.515098234041545</v>
+        <v>2.446360551230782</v>
       </c>
       <c r="C15">
-        <v>0.6201351969364737</v>
+        <v>0.6266875766059457</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06667705957448966</v>
+        <v>0.06302309783519799</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.1471955148723652</v>
+        <v>0.1664347601101284</v>
       </c>
       <c r="H15">
-        <v>0.1790026499310784</v>
+        <v>0.1786389851220775</v>
       </c>
       <c r="I15">
-        <v>0.01300666311012222</v>
+        <v>0.01197427788008021</v>
       </c>
       <c r="J15">
-        <v>0.1408546470975196</v>
+        <v>0.1395663559742886</v>
       </c>
       <c r="K15">
-        <v>0.09014454857953602</v>
+        <v>0.08783282427157335</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07186275770643746</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01374690878549512</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3660033450839606</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.186176347571262</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.5581649106615885</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3621316326712005</v>
+      </c>
+      <c r="R15">
+        <v>1.24174861535873</v>
+      </c>
+      <c r="S15">
+        <v>0.5110935480687857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.359228135606031</v>
+        <v>2.308572027291973</v>
       </c>
       <c r="C16">
-        <v>0.5888712370883411</v>
+        <v>0.5992084903975865</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0658040276680758</v>
+        <v>0.06270863467264753</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.1423037533139677</v>
+        <v>0.1414761755356722</v>
       </c>
       <c r="H16">
-        <v>0.1652818137263949</v>
+        <v>0.1650051920170625</v>
       </c>
       <c r="I16">
-        <v>0.01172992382336613</v>
+        <v>0.01099411912454595</v>
       </c>
       <c r="J16">
-        <v>0.1413085928298159</v>
+        <v>0.16114162944924</v>
       </c>
       <c r="K16">
-        <v>0.09399863454852309</v>
+        <v>0.092819470352004</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07427901446377261</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01380191611241344</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3473596118219433</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.154493418050421</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.548583923266321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3454971854632518</v>
+      </c>
+      <c r="R16">
+        <v>1.194888780751583</v>
+      </c>
+      <c r="S16">
+        <v>0.5214155178201167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.25858741105651</v>
+        <v>2.214180018053924</v>
       </c>
       <c r="C17">
-        <v>0.5724453826706224</v>
+        <v>0.5853608243996007</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06351526541394359</v>
+        <v>0.06066768103640696</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1496449650767104</v>
+        <v>0.1400823102679567</v>
       </c>
       <c r="H17">
-        <v>0.1270686801087919</v>
+        <v>0.1268284278919367</v>
       </c>
       <c r="I17">
-        <v>0.01106601107067728</v>
+        <v>0.01048043294382683</v>
       </c>
       <c r="J17">
-        <v>0.147099028047684</v>
+        <v>0.1768655515185529</v>
       </c>
       <c r="K17">
-        <v>0.09973257511853006</v>
+        <v>0.09844720002274876</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0768139529917109</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01487709461524389</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3948532589227298</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.104554597626375</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.576175351126949</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3937387039075801</v>
+      </c>
+      <c r="R17">
+        <v>1.13883021652056</v>
+      </c>
+      <c r="S17">
+        <v>0.5549795363842804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.196773267268554</v>
+        <v>2.151681811319577</v>
       </c>
       <c r="C18">
-        <v>0.5653272527946456</v>
+        <v>0.5814550090358352</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08806003507721982</v>
+        <v>0.08518687856512486</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.1697040877911817</v>
+        <v>0.155032607601342</v>
       </c>
       <c r="H18">
-        <v>0.0744141652201975</v>
+        <v>0.07417375379257862</v>
       </c>
       <c r="I18">
-        <v>0.01061822935162393</v>
+        <v>0.01003712275915269</v>
       </c>
       <c r="J18">
-        <v>0.1587250783172536</v>
+        <v>0.1924244813534841</v>
       </c>
       <c r="K18">
-        <v>0.1085656098865169</v>
+        <v>0.1062382002541167</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08010781600144767</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01721021822443269</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5173173482029298</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1.034626673444095</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.6429976036251901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5164174973135118</v>
+      </c>
+      <c r="R18">
+        <v>1.067426756843005</v>
+      </c>
+      <c r="S18">
+        <v>0.619802621988768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.16520939113235</v>
+        <v>2.11507902987654</v>
       </c>
       <c r="C19">
-        <v>0.5699057386157449</v>
+        <v>0.5902186362115458</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1749343500217471</v>
+        <v>0.1718403235952373</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.1984321454194671</v>
+        <v>0.1802210082640698</v>
       </c>
       <c r="H19">
-        <v>0.03012015095017517</v>
+        <v>0.0298426858837999</v>
       </c>
       <c r="I19">
-        <v>0.0108683310290365</v>
+        <v>0.01029015284134172</v>
       </c>
       <c r="J19">
-        <v>0.1739544509239579</v>
+        <v>0.2078914111734775</v>
       </c>
       <c r="K19">
-        <v>0.1193717988566192</v>
+        <v>0.1152957763384208</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08373732302024006</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02044532717006398</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7113289403581646</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.961841167170931</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.7357898192696979</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7102987918399819</v>
+      </c>
+      <c r="R19">
+        <v>0.9956623604561656</v>
+      </c>
+      <c r="S19">
+        <v>0.7052103644225127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.229534058799459</v>
+        <v>2.162751000191804</v>
       </c>
       <c r="C20">
-        <v>0.6007872484467498</v>
+        <v>0.6280825468717239</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4272469503496481</v>
+        <v>0.4237905698231188</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2531108145438878</v>
+        <v>0.236792797442412</v>
       </c>
       <c r="H20">
-        <v>0.007351287878419654</v>
+        <v>0.006919880253297261</v>
       </c>
       <c r="I20">
-        <v>0.01226082787955729</v>
+        <v>0.01146609939710963</v>
       </c>
       <c r="J20">
-        <v>0.200080315419676</v>
+        <v>0.2217952641689251</v>
       </c>
       <c r="K20">
-        <v>0.1364151249092718</v>
+        <v>0.1281595593049829</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08770379717056898</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.02699911728804416</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.099204404809598</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8734320042213568</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.9065426720142966</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.096614247517202</v>
+      </c>
+      <c r="R20">
+        <v>0.9136313724423957</v>
+      </c>
+      <c r="S20">
+        <v>0.851855497397878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.502070121337681</v>
+        <v>2.396526911684305</v>
       </c>
       <c r="C21">
-        <v>0.6635877996679937</v>
+        <v>0.6848705391596468</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4975185259034021</v>
+        <v>0.4958384741564501</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2807634514923052</v>
+        <v>0.3179045450164324</v>
       </c>
       <c r="H21">
-        <v>0.01023235762058974</v>
+        <v>0.009545835708144587</v>
       </c>
       <c r="I21">
-        <v>0.01503582877573351</v>
+        <v>0.01365392074928984</v>
       </c>
       <c r="J21">
-        <v>0.2086678218930302</v>
+        <v>0.1661155974663231</v>
       </c>
       <c r="K21">
-        <v>0.1356731051270756</v>
+        <v>0.1213677921541265</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08213892422963998</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02980107787536568</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.268009608393925</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8845718462764296</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.9834415150513109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.257498330854048</v>
+      </c>
+      <c r="R21">
+        <v>0.9493115088331763</v>
+      </c>
+      <c r="S21">
+        <v>0.8686213372146483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.684216495046996</v>
+        <v>2.551614610477031</v>
       </c>
       <c r="C22">
-        <v>0.701832321183673</v>
+        <v>0.7178053264135826</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5286291357029924</v>
+        <v>0.5283940604385435</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.2979729663217512</v>
+        <v>0.3778813585458067</v>
       </c>
       <c r="H22">
-        <v>0.01220821786612983</v>
+        <v>0.01133827203909113</v>
       </c>
       <c r="I22">
-        <v>0.01670377975097459</v>
+        <v>0.0148378995989269</v>
       </c>
       <c r="J22">
-        <v>0.2139027593213427</v>
+        <v>0.1363298812425136</v>
       </c>
       <c r="K22">
-        <v>0.1352153089302277</v>
+        <v>0.1167281323904117</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07869811427060647</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.03171183959901747</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.359962081079445</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8948138735953535</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.031071666190797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.3436644628257</v>
+      </c>
+      <c r="R22">
+        <v>0.9770652862938789</v>
+      </c>
+      <c r="S22">
+        <v>0.8740019368416796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.590560223325724</v>
+        <v>2.475004474025866</v>
       </c>
       <c r="C23">
-        <v>0.6791646821057498</v>
+        <v>0.6996048965337422</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5120589832323788</v>
+        <v>0.5107527077930243</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.289872042206099</v>
+        <v>0.3398776202730289</v>
       </c>
       <c r="H23">
-        <v>0.01114142179681753</v>
+        <v>0.01037928723806155</v>
       </c>
       <c r="I23">
-        <v>0.01555643224385239</v>
+        <v>0.01390226371173764</v>
       </c>
       <c r="J23">
-        <v>0.2116601617623672</v>
+        <v>0.1565951038865236</v>
       </c>
       <c r="K23">
-        <v>0.1361134700097537</v>
+        <v>0.12022505258847</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08082622574437703</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.03114740675430561</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.31087280721043</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.887417431292377</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.009104165756241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.298509340696071</v>
+      </c>
+      <c r="R23">
+        <v>0.9583136205691289</v>
+      </c>
+      <c r="S23">
+        <v>0.8795272547743025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.229239570506422</v>
+        <v>2.162110473788516</v>
       </c>
       <c r="C24">
-        <v>0.5972923417056961</v>
+        <v>0.6249207511407064</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4493989552136384</v>
+        <v>0.4458985624505587</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2581993939860538</v>
+        <v>0.241136107857308</v>
       </c>
       <c r="H24">
-        <v>0.007464509200532876</v>
+        <v>0.007025777322668847</v>
       </c>
       <c r="I24">
-        <v>0.01187092998164907</v>
+        <v>0.01097220534664967</v>
       </c>
       <c r="J24">
-        <v>0.2027404649272668</v>
+        <v>0.2248045024537646</v>
       </c>
       <c r="K24">
-        <v>0.1389394805001558</v>
+        <v>0.1303661460900845</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08857209159548063</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.02780263723196974</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.125211443610283</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8638152642147645</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.9228996784636934</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.122633902639834</v>
+      </c>
+      <c r="R24">
+        <v>0.9036329315056548</v>
+      </c>
+      <c r="S24">
+        <v>0.8673559247034461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.837689580081104</v>
+        <v>1.79285366174355</v>
       </c>
       <c r="C25">
-        <v>0.5094526215309259</v>
+        <v>0.5265150057287826</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3820388583130452</v>
+        <v>0.3792525445350705</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2256424856690202</v>
+        <v>0.2064389598163174</v>
       </c>
       <c r="H25">
-        <v>0.004201574766279692</v>
+        <v>0.003961756121389715</v>
       </c>
       <c r="I25">
-        <v>0.008435079154873293</v>
+        <v>0.008066120331746696</v>
       </c>
       <c r="J25">
-        <v>0.1941297586222817</v>
+        <v>0.225510562596611</v>
       </c>
       <c r="K25">
-        <v>0.1430440084417022</v>
+        <v>0.1368374375825354</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09613197525838935</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02339423987192824</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9252974019205098</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8409648686648552</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.8354137212335644</v>
+        <v>0.9240238865699268</v>
+      </c>
+      <c r="R25">
+        <v>0.8670302121079771</v>
+      </c>
+      <c r="S25">
+        <v>0.8006549070546072</v>
       </c>
     </row>
   </sheetData>
